--- a/data/IN/outputs/competitive_bills.xlsx
+++ b/data/IN/outputs/competitive_bills.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">

--- a/data/IN/outputs/competitive_bills.xlsx
+++ b/data/IN/outputs/competitive_bills.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="479">
   <si>
     <t>bill_id</t>
   </si>
@@ -384,6 +384,1083 @@
   </si>
   <si>
     <t>Eric Koch,Edmond Soliday,Timothy Neese,Kreg Battles,David Frizzell,Heath VanNatter,Christina Hale,Alan Morrison</t>
+  </si>
+  <si>
+    <t>SB0251</t>
+  </si>
+  <si>
+    <t>Controlled projects. Provides that for purposes of determining whether a capital project by a political subdivision located in Hamilton County other than a school corporation is a controlled project for purposes of the petition and remonstrance process or the referendum process the cost of the project does not include any expenditures that will be paid from money that has accumulated or has been deposited by the political subdivision in a fund. Specifies that the political subdivision must before the preliminary determination is made for the capital project segregate the money as provided in a capital improvement plan a capital development</t>
+  </si>
+  <si>
+    <t>Gerald Torr,Terry Goodin,Howard Kenley,James Buck,John Broden,Donna Schaibley,Anthony Cook</t>
+  </si>
+  <si>
+    <t>David Niezgodski,Sheila Klinker,Daniel Leonard,Randy Truitt,Robert Cherry,Edward DeLaney,Jeffrey Thompson,Michael Karickhoff,James Baird,Sharon Negele,Todd Huston,David Ober,Harold Slager,Holli Sullivan,Gail Riecken,Timothy Brown,Cherrish Pryor,Steven Stemler,Matthew Ubelhor,Peggy Mayfield,Mike Braun</t>
+  </si>
+  <si>
+    <t>HB1050</t>
+  </si>
+  <si>
+    <t>Actions against a surveyor. Provides that an action to recover damages for a deficiency in a land survey must be brought against the surveyor not later than 10 years after the date of the survey.</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Lonnie Randolph,Judson McMillin,Susan Glick,Karlee Macer,David Ober</t>
+  </si>
+  <si>
+    <t>Eric Koch,Vernon Smith,Patrick Bauer,Gregory Steuerwald,Gerald Torr,Daniel Leonard,Edward DeLaney,Judson McMillin,Wendy McNamara,Thomas Washburne,Casey Cox,William Fine</t>
+  </si>
+  <si>
+    <t>HB1072</t>
+  </si>
+  <si>
+    <t>Various education matters. Provides that the department of education (department) shall provide any data to the state board of education (state board) that the state board determines is necessary to perform the state board's duties under law. Makes changes to the provision requiring school corporations to establish plans for evaluations of certificated employees. Provides that a school corporation may adopt the department's model plan or any other model plan approved by the department and the state board. Requires the education roundtable to make recommendations to the state board regarding the passing scores required at the various grade levels tested under</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Jeffrey Thompson</t>
+  </si>
+  <si>
+    <t>Edward Clere,Charles Burton,Jeffrey Thompson,Robert Behning,Rhonda Rhoads,Dale DeVon,Jim Lucas,William Fine,Anthony Cook,Vernon Smith,Terri Jo Austin,Sue Errington,Justin Moed</t>
+  </si>
+  <si>
+    <t>SB0050</t>
+  </si>
+  <si>
+    <t>Antidiscrimination safeguards. Indicates that the law related to adjudicating a claim or defense that a state or local law ordinance or other action substantially burdens the exercise of religion of a person: (1) does not authorize a provider to refuse to offer or provide services facilities use of public accommodations goods employment or housing to any member or members of the general public; (2) does not establish a defense to a civil action or criminal prosecution for refusal by a provider to offer or provide services facilities use of public accommodations goods employment or housing to any member or members</t>
+  </si>
+  <si>
+    <t>David Frizzell,Michael Young,Milo Smith,Michael Crider</t>
+  </si>
+  <si>
+    <t>Clyde Kersey,Charles Moseley,Charles Burton,Kathy Richardson,John Bartlett,Philip GiaQuinta,Milo Smith,Timothy Wesco,Lloyd Arnold,Casey Cox,Anthony Cook</t>
+  </si>
+  <si>
+    <t>SB0098</t>
+  </si>
+  <si>
+    <t>Lawsuits against gun manufacturers. Prohibits a person from bringing certain actions against a firearms manufacturer ammunition manufacturer trade association or seller and makes the prohibition effective upon passage. Prohibits awards for attorney's fees and incurred costs in certain instances.</t>
+  </si>
+  <si>
+    <t>Gerald Torr,Mark Messmer,Steven Stemler,Dennis Kruse,Brandt Hershman,Brent Steele,Brent Waltz,Vaneta Becker,James Tomes,Ben Smaltz,Jim Lucas</t>
+  </si>
+  <si>
+    <t>Eric Koch,Gregory Steuerwald,Gerald Torr,Daniel Leonard,Wendy McNamara,Thomas Washburne,Casey Cox,Vernon Smith,Patrick Bauer,Edward DeLaney,William Fine</t>
+  </si>
+  <si>
+    <t>HB1019</t>
+  </si>
+  <si>
+    <t>Common construction wage and public works. Repeals the common construction wage statute. Repeals related statutes superseded by the repeal of the common construction wage statute. Increases the "small project" cap for a public works project from $150000 to $300000. Unless required by federal or state law prohibits a public agency from establishing mandating or otherwise requiring a wage scale or wage schedule for a public works project. Provides that the following apply to all public works projects except public-private design-build and construction manager as constructor agreements: (1) Provides that a public works contract may not be structured other than in</t>
+  </si>
+  <si>
+    <t>Brian Bosma,Gerald Torr,Edward Clere,Timothy Brown,Charles Burton,Kathy Richardson,Dennis Kruse,Carlin Yoder,Brandt Hershman,Scott Schneider,Mike Speedy,James Smith,Dale DeVon,John Price,Martin Carbaugh,Jim Lucas,Cindy Ziemke,Pete Miller,Eric Bassler,Anthony Cook</t>
+  </si>
+  <si>
+    <t>Gerald Torr,Judson McMillin,Robert Morris,Timothy Wesco,Mike Speedy,Timothy Harman,David Ober,Martin Carbaugh,David Niezgodski,Linda Lawson,Charles Moseley,John Bartlett</t>
+  </si>
+  <si>
+    <t>HB1044</t>
+  </si>
+  <si>
+    <t>Food and beverage taxes. Authorizes the fiscal body of the town of Rockville to adopt a town food and beverage tax. Provides that the tax rate may not exceed 1%. Specifies the purposes for which the Rockville food and beverage tax may be used. Authorizes the fiscal body of Orange County to adopt a food and beverage tax of not more than 1%. Specifies the permissible uses of the tax revenue. Urges the legislative council to assign to a study committee the topic of whether a uniform food and beverage tax should be enacted into law to allow local governments</t>
+  </si>
+  <si>
+    <t>Edward DeLaney,Philip Boots,Alan Morrison,John Price,Jon Ford</t>
+  </si>
+  <si>
+    <t>Daniel Leonard,Randy Truitt,Timothy Brown,Edward DeLaney,Cherrish Pryor,Gregory Porter,Steven Davisson,Michael Karickhoff,James Baird,Sharon Negele,Peggy Mayfield,Harold Slager,Holli Sullivan,Mike Braun,Gail Riecken,Sheila Klinker,Terry Goodin</t>
+  </si>
+  <si>
+    <t>SB0101</t>
+  </si>
+  <si>
+    <t>Religious freedom restoration. Prohibits a governmental entity from substantially burdening a person's exercise of religion even if the burden results from a rule of general applicability unless the governmental entity can demonstrate that the burden: (1) is in furtherance of a compelling governmental interest; and (2) is the least restrictive means of furthering the compelling governmental interest. Provides a procedure for remedying a violation. Specifies that the religious freedom law applies to the implementation or application of a law regardless of whether the state or any other governmental entity or official is a party to a proceeding implementing or applying</t>
+  </si>
+  <si>
+    <t>Eric Koch,Charles Burton,Mark Messmer,Matthew Lehman,Jeffrey Thompson,David Frizzell,Donald Lehe,Bruce Borders,Dennis Kruse,Carlin Yoder,Brent Steele,James Buck,Scott Schneider,Greg Walker,Brent Waltz,Jean Leising,Randall Frye,Judson McMillin,Rhonda Rhoads,Robert Heaton,Robert Morris,James Tomes,Milo Smith,Timothy Wesco,Mike Speedy,Doug Miller,James Smith,Dale DeVon,Richard Hamm,Timothy Harman,Alan Morrison,Thomas Washburne,Jim Lucas,Elizabeth Brown,Curt Nisly,Christopher Judy,Amanda Banks,Anthony Cook</t>
+  </si>
+  <si>
+    <t>Eric Koch,Gregory Steuerwald,Gerald Torr,Daniel Leonard,Judson McMillin,Wendy McNamara,Thomas Washburne,Casey Cox,William Fine,Vernon Smith,Patrick Bauer,Edward DeLaney,Ryan Dvorak</t>
+  </si>
+  <si>
+    <t>HB1069</t>
+  </si>
+  <si>
+    <t>Dissolution of human remains. Requires a crematory that is registered after July 1 2015 to be supervised by a funeral director. Requires that a person who operates a cremation chamber to receive training and be certified as a crematory operator. Provides for alkaline hydrolysis as a means for the dissolution of human remains. Requires the state board of funeral and cemetery service to adopt rules governing the operation of alkaline hydrolysis facilities.</t>
+  </si>
+  <si>
+    <t>Edward Clere,Jeffrey Thompson,Charlie Brown</t>
+  </si>
+  <si>
+    <t>Edward Clere,David Frizzell,Gregory Porter,Robert Behning,Ronald Bacon,Steven Davisson,Cindy Kirchhofer,Charlie Brown,Robin Shackleford,Harold Slager,Dennis Zent,Donald Lehe</t>
+  </si>
+  <si>
+    <t>SB0329</t>
+  </si>
+  <si>
+    <t>Disposition of aborted remains. Defines "fetus". Establishes a right beginning January 1 2016 for a pregnant woman who has an abortion to determine the final disposition of the aborted fetus. Requires that a pregnant woman be informed orally and in writing before an abortion: (1) that the pregnant woman has a right to determine the final disposition of the remains of the aborted fetus; (2) of available options for disposition of the aborted fetus; and (3) of available counseling services. Requires the state department of health to: (1) adopt rules concerning the disposal methods to be used for aborted fetuses;</t>
+  </si>
+  <si>
+    <t>Travis Holdman,Michael Young,Ronald Bacon,Robert Morris,Martin Carbaugh,Dennis Zent,Elizabeth Brown,Christopher Judy,Amanda Banks</t>
+  </si>
+  <si>
+    <t>Edward Clere,Thomas Dermody,Matthew Lehman,Sean Eberhart,Matthew Ubelhor,Timothy Wesco,Todd Huston,Ben Smaltz,Jim Lucas,Terri Jo Austin,Vanessa Summers,Philip GiaQuinta,Charlie Brown</t>
+  </si>
+  <si>
+    <t>HB1110</t>
+  </si>
+  <si>
+    <t>Magistrates and courts. Allows the judges of the Clark circuit court to jointly appoint a third full-time magistrate. Allows the judge of the Greene circuit court and the judge of the Greene superior court to jointly appoint one full-time magistrate. Allows the judges of the Madison circuit court to jointly appoint a second full-time magistrate. Allows the judges of the Marion superior court to appoint four additional full-time magistrates after December 31 2015. Allows the judge of the Porter circuit court to appoint one full-time magistrate. Allows the judge of the Vanderburgh circuit court to appoint a second full-time magistrate.</t>
+  </si>
+  <si>
+    <t>Gregory Steuerwald,Linda Lawson,Edward Clere,Steven Stemler,Lonnie Randolph,Brent Steele,Ronald Grooms</t>
+  </si>
+  <si>
+    <t>Sheila Klinker,Daniel Leonard,Timothy Brown,Robert Cherry,Terry Goodin,Edward DeLaney,Cherrish Pryor,Jeffrey Thompson,Gregory Porter,Steven Davisson,Michael Karickhoff,James Baird,Peggy Mayfield,Harold Slager,Mike Braun</t>
+  </si>
+  <si>
+    <t>SB0309</t>
+  </si>
+  <si>
+    <t>Electricity suppliers' service areas. Provides that after May 19 2015 a municipality that: (1) owns and operates an electric utility; and (2) annexes an area beyond the assigned service area of its municipally owned electric utility; may not petition the utility regulatory commission (IURC) to change the assigned service area of the municipally owned electric utility to include the annexed area according to certain procedures permitted under current law. Provides that the prohibition does not affect a petition that is: (1) filed with the IURC before May 20 2015 according to the procedures permitted under current law; and (2) pending</t>
+  </si>
+  <si>
+    <t>Eric Koch,Linda Lawson,Robert Cherry,Cherrish Pryor,Ed Charbonneau,Carlin Yoder,Jean Breaux,Doug Eckerty,Michael Crider,David Ober,Jon Ford</t>
+  </si>
+  <si>
+    <t>Eric Koch,Edmond Soliday,Cherrish Pryor,Matt Pierce,David Frizzell,Robert Behning,Randall Frye,Heath VanNatter,Mike Speedy,Dale DeVon,Christina Hale,Alan Morrison,Dan Forestal</t>
+  </si>
+  <si>
+    <t>SB0306</t>
+  </si>
+  <si>
+    <t>Limited liability arising from trespassing. Provides that a person who possesses any fee reversionary or easement interest in real property including an owner a lessee or another lawful occupant of real property does not owe a duty of care to a trespasser except to refrain from willfully or wantonly injuring the trespasser after the trespasser has been discovered on the real property possessed by the person. Provides that the person may be subject to liability for physical injury or death to a child trespasser under certain circumstances.</t>
+  </si>
+  <si>
+    <t>Eric Koch,Gregory Steuerwald,Steven Stemler,Travis Holdman,Greg Taylor,James Arnold,Randall Head,Timothy Lanane,Brent Steele,Rodric Bray,Michael Crider</t>
+  </si>
+  <si>
+    <t>Gregory Steuerwald,Gerald Torr,Judson McMillin,Wendy McNamara,Thomas Washburne,William Fine,Vernon Smith,Patrick Bauer,Edward DeLaney</t>
+  </si>
+  <si>
+    <t>SB0426</t>
+  </si>
+  <si>
+    <t>County and township assessor qualifications. Removes requirements that a candidate for county or township assessor must attain a certain level assessor-appraiser certification as a condition for becoming a candidate for the office. Provides that an individual who has never held the assessor's office must have a level two assessor-appraiser certification before the individual assumes the office of assessor (county or township). Provides that an individual who has held the assessor's office must have a level three assessor-appraiser certification before the individual assumes a new term of office (county or township). Requires a county fiscal body to establish a salary schedule</t>
+  </si>
+  <si>
+    <t>Randy Truitt,Robert Cherry,Terry Goodin,Howard Kenley,James Buck,Rhonda Rhoads,Jon Ford,Erin Houchin</t>
+  </si>
+  <si>
+    <t>Robert Cherry,Bruce Borders,Timothy Wesco,John Price,Dennis Zent,Micheal Aylesworth,Melanie Wright,Cherrish Pryor,Justin Moed</t>
+  </si>
+  <si>
+    <t>SB0373</t>
+  </si>
+  <si>
+    <t>Civil proceeding advance payment transactions. Defines a "civil proceeding advance payment transaction" or "CPAP transaction" as a nonrecourse transaction in which a person (CPAP provider) provides to a consumer claimant in a civil proceeding a funded amount the repayment of which is: (1) required only if the consumer claimant prevails in the civil proceeding; and (2) sourced from the proceeds of the civil proceeding. Requires a CPAP provider to register with the department of financial institutions (department). Sets forth requirements including disclosure requirements for a contract (CPAP contract) entered into by a CPAP provider and a consumer claimant. Sets forth</t>
+  </si>
+  <si>
+    <t>Terri Jo Austin,Matthew Lehman,Greg Taylor,Randall Head,Michael Young</t>
+  </si>
+  <si>
+    <t>Gail Riecken,Wes Culver,Charles Burton,Robert Heaton,Sharon Negele,Richard Hamm,Justin Moed,John Price,Greg Beumer,Donna Schaibley</t>
+  </si>
+  <si>
+    <t>SB0437</t>
+  </si>
+  <si>
+    <t>Compression release engine brakes. Provides that it is a Class C infraction for a person to drive a motor vehicle equipped with compression release engine brakes unless the motor vehicle is equipped with a muffler in good working condition so that excessive noise is prevented with certain exceptions.</t>
+  </si>
+  <si>
+    <t>Sheila Klinker,Randy Truitt,Donald Lehe,Patricia Miller,Carlin Yoder,Brandt Hershman</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Thomas Saunders,Cherrish Pryor,Steven Stemler,Randall Frye,Charlie Brown,Dan Forestal,Ben Smaltz,Holli Sullivan,Curt Nisly,Mike Braun,Robert Morris</t>
+  </si>
+  <si>
+    <t>SB0390</t>
+  </si>
+  <si>
+    <t>Lake County solid waste management district. Provides that the county executive of Lake County in response to a recommendation submitted by the solid waste management district of the county may adopt a resolution: (1) confirming the authority of the solid waste management district to exercise certain powers concerning final disposal facilities or borrowing in anticipation of taxes as proposed in the recommendation; or (2) denying the solid waste management district the authority to exercise the powers as proposed in the recommendation. Provides that the solid waste management district is authorized to exercise the powers as proposed in a recommendation if:</t>
+  </si>
+  <si>
+    <t>Charlie Brown,Rick Niemeyer,Harold Slager,Micheal Aylesworth,Elizabeth Brown</t>
+  </si>
+  <si>
+    <t>Patrick Bauer,William Friend,Matt Pierce,Donald Lehe,Sean Eberhart,Sue Errington,Heath VanNatter,Doug Miller,Greg Beumer,Micheal Aylesworth,Donna Schaibley</t>
+  </si>
+  <si>
+    <t>SB0412</t>
+  </si>
+  <si>
+    <t>Integrated resource plans and energy efficiency. Requires a public utility to submit an integrated resource plan to the utility regulatory commission (IURC). Requires certain electricity suppliers to submit an energy efficiency plan to the IURC at least one time every three years. Provides that evaluation measurement and verification procedures required to be included in an electricity supplier's energy efficiency plan must include independent evaluation measurement and verification. Provides that the IURC may not require a third party administrator to implement an electricity supplier's energy efficiency program or plan. Provides that if the IURC finds an electricity supplier's energy efficiency plan</t>
+  </si>
+  <si>
+    <t>Eric Koch,Randall Head,James Merritt,Jean Breaux,Alan Morrison,Alan Morrison</t>
+  </si>
+  <si>
+    <t>Eric Koch,Edmond Soliday,David Frizzell,Randall Frye,Heath VanNatter,Dale DeVon,Dan Forestal,Alan Morrison,Cherrish Pryor,Matt Pierce,Christina Hale</t>
+  </si>
+  <si>
+    <t>HB1164</t>
+  </si>
+  <si>
+    <t>Northwest Indiana regional planning commission. Requires the most recent federal decennial census to be used (instead of the 2000 decennial census) in determining the weighted vote of a member of the northwestern Indiana regional planning commission.</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,James Arnold,Lonnie Randolph,Rick Niemeyer,William Fine</t>
+  </si>
+  <si>
+    <t>Gail Riecken,Earl Harris,David Wolkins,John Bartlett,Sue Errington,Wendy McNamara,Cindy Kirchhofer,Doug Miller,Timothy Harman,Jim Lucas,Julie Olthoff</t>
+  </si>
+  <si>
+    <t>HB1165</t>
+  </si>
+  <si>
+    <t>Rental registration and inspection programs. Exempts programs that apply only to rooming houses and hotels from provisions regulating local government rental registration or inspection programs.</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Travis Holdman,Greg Walker,Charlie Brown</t>
+  </si>
+  <si>
+    <t>Kevin Mahan,Wendy McNamara,Cindy Kirchhofer,Doug Miller,Timothy Harman,Jim Lucas,Julie Olthoff,Gail Riecken</t>
+  </si>
+  <si>
+    <t>HB1186</t>
+  </si>
+  <si>
+    <t>Unemployment insurance. Provides that any part of an unemployment insurance surcharge not used to pay interest on the advances made to the state from the federal unemployment trust fund must be credited against the total amount of benefits charged to the state's unemployment insurance trust fund before determining each employer's share of those benefits. Removes language that requires the extra surcharge amount be credited to each employer's experience account in proportion to the amount of the surcharge the employer paid. Requires the department of workforce development (department) to establish an unemployment benefit overpayment not later than four years from the</t>
+  </si>
+  <si>
+    <t>Employment &amp; Labor</t>
+  </si>
+  <si>
+    <t>Daniel Leonard,Greg Walker,Philip Boots,Richard Hamm</t>
+  </si>
+  <si>
+    <t>Gerald Torr,Doug Gutwein,Timothy Wesco,Mike Speedy,Timothy Harman,David Ober,Martin Carbaugh,David Niezgodski,Linda Lawson,Charles Moseley,John Bartlett</t>
+  </si>
+  <si>
+    <t>HB1236</t>
+  </si>
+  <si>
+    <t>Political activity on homeowners association property. Provides that the statute that prohibits a homeowners association from adopting or enforcing a rule or covenant that prohibits candidates and officeholders from entering the property to conduct political activity does not apply to homeowners association property if: (1) access to the property from the outside is controlled; and (2) the common areas including roads and sidewalks are privately owned and maintained.</t>
+  </si>
+  <si>
+    <t>Lonnie Randolph,Greg Walker,Milo Smith,Rick Niemeyer,Harold Slager,Julie Olthoff</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Clyde Kersey,Charles Moseley,Charles Burton,Kathy Richardson,John Bartlett,Jeffrey Thompson,Philip GiaQuinta,Milo Smith,Timothy Wesco,Lloyd Arnold,Casey Cox,Anthony Cook</t>
+  </si>
+  <si>
+    <t>HB1270</t>
+  </si>
+  <si>
+    <t>Horse racing matters. Provides that the minimum salary per diem for a member of the Indiana horse racing commission equals the maximum per diem amount that an employee of the executive branch of the federal government receives. Changes the appointment process for members of breed development advisory committees and the process to appoint new members. Changes the distribution of funds to promote horses and horse racing. Authorizes advance deposit wagers on horse racing. Provides that each permit holder shall pay to the horse racing commission as an advance deposit wagering fee an amount equal to 20% of the net source</t>
+  </si>
+  <si>
+    <t>Terri Jo Austin,Robert Cherry,Terry Goodin,William Friend,Donald Lehe,Howard Kenley,James Arnold,Philip Boots</t>
+  </si>
+  <si>
+    <t>Terri Jo Austin,Edward Clere,Vanessa Summers,Thomas Dermody,Matthew Lehman,Philip GiaQuinta,Sean Eberhart,Matthew Ubelhor,Charlie Brown</t>
+  </si>
+  <si>
+    <t>HB1264</t>
+  </si>
+  <si>
+    <t>State and local government matters. Beginning July 1 2016 requires the following: (1) The legislative body of a political subdivision to ensure appropriate training of personnel concerning the political subdivision's internal control system. (2) The fiscal officer of a political subdivision to certify annually that certain internal controls and procedures are in place and that personnel have received training in the internal controls and procedures. (3) The state board of accounts (board) to issue a comment in its examination report if internal controls and procedures are not adopted or personnel have not received training. (4) The board to report the</t>
+  </si>
+  <si>
+    <t>Eric Koch,Matthew Lehman,Travis Holdman,Randall Head,Lonnie Randolph</t>
+  </si>
+  <si>
+    <t>SB0001</t>
+  </si>
+  <si>
+    <t>State board of education governance. Adds a statement of legislative intent regarding the roles of the general assembly the state board of education (state board) and the department of education (department) relating to education. Makes changes beginning June 1 2015 to the composition of the state board. Provides that the state board may hire staff and administrative support. Provides that after December 31 2016 the state board shall elect a chairperson annually from the members of the state board. Provides that the state board shall after June 30 2015 elect a vice chairperson annually from the members of the state</t>
+  </si>
+  <si>
+    <t>Travis Holdman,Dennis Kruse,Brandt Hershman,Judson McMillin,Timothy Wesco</t>
+  </si>
+  <si>
+    <t>Charles Burton,Jeffrey Thompson,Robert Behning,Rhonda Rhoads,Dale DeVon,Jim Lucas,William Fine,Anthony Cook,Vernon Smith,Terri Jo Austin,Sue Errington,Justin Moed</t>
+  </si>
+  <si>
+    <t>HB1273</t>
+  </si>
+  <si>
+    <t>Financing of improvements for Carroll Stadium. Provides that Indiana University may issue and sell bonds to acquire erect construct reconstruct improve rehabilitate remodel repair complete extend or enlarge capital improvements at the Michael A. Carroll Track and Soccer Stadium (stadium). Specifies that the principal costs of the bonds issued (excluding amounts necessary to provide money for debt service reserves credit enhancement or other costs incidental to the issuance of the bonds) may not exceed $20000000. Provides that the bonds may not be issued unless: (1) the bond issuance has been reviewed by the budget committee; (2) the director of the</t>
+  </si>
+  <si>
+    <t>James Merritt,Jean Breaux,Cindy Kirchhofer,Todd Huston,Justin Moed,David Ober,Pete Miller,Jon Ford</t>
+  </si>
+  <si>
+    <t>David Niezgodski,Gail Riecken,Sheila Klinker,Daniel Leonard,Randy Truitt,Timothy Brown,Robert Cherry,Terry Goodin,Cherrish Pryor,Jeffrey Thompson,Gregory Porter,Steven Davisson,Michael Karickhoff,Matthew Ubelhor,Sharon Negele,Todd Huston,Peggy Mayfield,David Ober,Harold Slager,Holli Sullivan,Edward DeLaney,Steven Stemler,James Baird</t>
+  </si>
+  <si>
+    <t>HB1300</t>
+  </si>
+  <si>
+    <t>Ordinances related to building and housing laws. Specifies that an ordinance or other regulation adopted by a political subdivision that qualifies as a fire safety law or a building law: (1) must be submitted to the fire prevention and building safety commission (commission) for review within 30 days of adoption by the political subdivision; and (2) is not effective until the ordinance or regulation: (A) is approved by the commission; or (B) is approved automatically if the commission does not approve or deny the ordinance or regulation within four commission meetings. Requires the commission to specify the basis for the</t>
+  </si>
+  <si>
+    <t>Sheila Klinker,Sean Eberhart,Brandt Hershman,James Buck,Philip Boots,Judson McMillin</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Charles Moseley,Doug Gutwein,Randall Frye,Lloyd Arnold,John Price,Martin Carbaugh,Dennis Zent,Christopher Judy,Linda Lawson,Sheila Klinker,Karlee Macer</t>
+  </si>
+  <si>
+    <t>HB1304</t>
+  </si>
+  <si>
+    <t>Various criminal law matters. Requires the criminal justice institute to track the number of juveniles in adult court. Requires custodial interrogations of juveniles to be recorded. Raises the ages for waiver of jurisdiction of certain juveniles to adult court. Allows a person with an intellectual disability developmental disability or autism spectrum disorder to participate in a forensic diversion program. Authorizes a prosecuting attorney to require a person participating in a prosecutorial diversion program to receive mental health treatment to reduce recidivism and allows diversion and deferral fees to be used to fund mental health treatment programs to reduce recidivism. Allows</t>
+  </si>
+  <si>
+    <t>Gregory Steuerwald,Matt Pierce,Michael Young,Lonnie Randolph,Brent Steele,Judson McMillin,Wendy McNamara</t>
+  </si>
+  <si>
+    <t>Gregory Steuerwald,Linda Lawson,Matt Pierce,Ryan Dvorak,Matthew Lehman,Judson McMillin,Rhonda Rhoads,Wendy McNamara,Cindy Kirchhofer,Thomas Washburne,Cindy Ziemke,Casey Cox</t>
+  </si>
+  <si>
+    <t>HB1349</t>
+  </si>
+  <si>
+    <t>Various tax matters. Provides that the equipment eligible for the double direct sales tax exemption includes material handling equipment purchased for the purpose of transporting materials into production activities from an onsite location. Specifies that the double direct sales tax exemption applies to agricultural machinery tools and equipment that is acquired for timber harvesting. Eliminates various adjustments to income for purposes of determining Indiana adjusted gross income. Eliminates various income tax exemptions deductions and credits. Specifies that certain tax credits for the preservation or rehabilitation of historic property certified before 2016 may be claimed or carried forward in future taxable</t>
+  </si>
+  <si>
+    <t>Timothy Brown,Travis Holdman,Lonnie Randolph,Brandt Hershman,Todd Huston</t>
+  </si>
+  <si>
+    <t>Daniel Leonard,Timothy Brown,Robert Cherry,Jeffrey Thompson,Michael Karickhoff,Matthew Ubelhor,James Baird,Todd Huston,David Ober,Holli Sullivan,David Niezgodski,Gail Riecken,Terry Goodin,Edward DeLaney,Gregory Porter,Steven Stemler</t>
+  </si>
+  <si>
+    <t>SB0465</t>
+  </si>
+  <si>
+    <t>Human services and health matters. Amends the definition of "autism". Makes multiple changes to the administration of the office of the secretary of family and social services. Moves the authority to operate a disability determination bureau from the division of disability and rehabilitative services (division) to the office of the secretary. Expires the health facility preadmission screening assessment process statute June 30 2016. Requires the division of aging to: (1) meet with stakeholders to collaborate on changes in the health facility preadmission screening assessment process; and (2) submit a written report to the general assembly before November 1 2015 concerning</t>
+  </si>
+  <si>
+    <t>Edward Clere,Timothy Brown,Howard Kenley,Patricia Miller,Charlie Brown</t>
+  </si>
+  <si>
+    <t>Patrick Bauer,Edward Clere,David Frizzell,Gregory Porter,Robert Behning,Donald Lehe,Ronald Bacon,Steven Davisson,Cindy Kirchhofer,Charlie Brown,Robin Shackleford,Harold Slager,Dennis Zent</t>
+  </si>
+  <si>
+    <t>SB0546</t>
+  </si>
+  <si>
+    <t>Abortion matters. Amends the definition of "abortion clinic" as follows: (1) Refers to a health care provider instead of a freestanding entity. (2) Exempts from the definition of "abortion clinic" a health care provider that provides an abortion inducing drug for the purposes of inducing an abortion to fewer than five patients a year. (Current law exempts certain physician's offices.) Requires that a person seeking a waiver by the health commissioner from rules authorized by the hospital council must affirmatively demonstrate that the waiver will not adversely affect or increase any risk to the health safety or welfare of an</t>
+  </si>
+  <si>
+    <t>Sheila Klinker,Mark Messmer,Travis Holdman,Michael Young,James Buck,Randall Frye,Timothy Wesco,Sharon Negele</t>
+  </si>
+  <si>
+    <t>Edward Clere,Vanessa Summers,Thomas Dermody,Matthew Lehman,Sean Eberhart,Matthew Ubelhor,Timothy Wesco,Todd Huston,Ben Smaltz,Jim Lucas,Terri Jo Austin,Philip GiaQuinta,Charlie Brown</t>
+  </si>
+  <si>
+    <t>SB0461</t>
+  </si>
+  <si>
+    <t>Health matters. Amends the definition of "basic life support" to include blood glucose monitoring. Authorizes the state department of health (state department) to enter into partnerships to encourage best practices in: (1) identification and testing of populations at risk of disease related to illegal drug use; and (2) the health care treatment of incarcerated individuals for conditions related to illegal drug use. Authorizes the state health commissioner to declare a public health emergency. Specifies that hospital discharge information filed with the state department is confidential except under specified circumstances. Sets forth conditions in which a local health department a municipality</t>
+  </si>
+  <si>
+    <t>Edward Clere,Timothy Brown,Patricia Miller,Lonnie Randolph,Vaneta Becker,Sue Errington,Charlie Brown,Mark Stoops</t>
+  </si>
+  <si>
+    <t>Patrick Bauer,Edward Clere,Gregory Porter,Ronald Bacon,Steven Davisson,Cindy Kirchhofer,Charlie Brown,Robin Shackleford,Harold Slager,Dennis Zent,David Frizzell,Donald Lehe</t>
+  </si>
+  <si>
+    <t>SB0460</t>
+  </si>
+  <si>
+    <t>Comprehensive care health facilities. Prohibits the state department of health from approving: (1) the licensure of comprehensive care health facilities; (2) new or converted comprehensive care beds; or (3) the certification of new or converted comprehensive care beds for participation in the state Medicaid program; through June 30 2018. Makes exceptions for certain facilities that are: (1) under development; (2) small house health facilities; (3) replacement facilities; (4) continuing care retirement communities; (5) facilities located in counties whose comprehensive care bed occupancy rate exceeds 90%; and (6) facilities that undergo a change of ownership for certain purposes. Limits small house</t>
+  </si>
+  <si>
+    <t>Edward Clere,Timothy Brown,Patricia Miller,Ryan Mishler,Charlie Brown,Mark Stoops</t>
+  </si>
+  <si>
+    <t>Sheila Klinker,Daniel Leonard,Timothy Brown,Robert Cherry,Edward DeLaney,Cherrish Pryor,Steven Stemler,Steven Davisson,Michael Karickhoff,Matthew Ubelhor,James Baird,Sharon Negele,Peggy Mayfield,David Niezgodski,Gail Riecken,Randy Truitt,Terry Goodin,Jeffrey Thompson,Todd Huston,David Ober,Harold Slager,Holli Sullivan,Mike Braun</t>
+  </si>
+  <si>
+    <t>HB1476</t>
+  </si>
+  <si>
+    <t>County option property tax replacement fee. Permits a county council or county income tax council to establish an annual property tax replacement fee on any parcel receiving assessed value deductions or property tax credits (except for a parcel receiving a deduction or credit based on an individual's age military or veteran's status or a disability including a spouse who is eligible for the deduction or credit) that reduce the annual property tax liability on the parcel to less than $200. Provides that the minimum annual amount due in property taxes plus the property tax replacement fee must be set by</t>
+  </si>
+  <si>
+    <t>Edward Clere,Edward DeLaney,Brandt Hershman,Michael Karickhoff</t>
+  </si>
+  <si>
+    <t>Daniel Leonard,Randy Truitt,Timothy Brown,Robert Cherry,Edward DeLaney,Jeffrey Thompson,Michael Karickhoff,Matthew Ubelhor,James Baird,Sharon Negele,Peggy Mayfield,David Ober,Harold Slager,Holli Sullivan,Mike Braun,David Niezgodski,Gail Riecken,Sheila Klinker,Terry Goodin,Cherrish Pryor,Gregory Porter</t>
+  </si>
+  <si>
+    <t>HB1475</t>
+  </si>
+  <si>
+    <t>Statewide 911 system. Removes the requirement that a county council (for a county adjusted gross income tax) or a county income tax council (for a county option income tax) must impose certain additional tax rates as a condition of imposing an additional tax rate for public safety (public safety LOIT). Provides that in a county in which a public safety LOIT is not in effect on July 1 2015 the county council or county income tax council (as appropriate) may adopt a resolution providing that up to 100% of the tax revenue from a public safety LOIT imposed by a</t>
+  </si>
+  <si>
+    <t>Terri Jo Austin,Gregory Steuerwald,Edward Clere,Randy Truitt,Jeffrey Thompson,Gregory Porter,Robert Behning,Philip GiaQuinta,James Arnold,Randall Head,Lonnie Randolph,Brandt Hershman,Randall Frye,Kevin Mahan,Michael Karickhoff,Doug Eckerty,Charlie Brown,Ben Smaltz,Martin Carbaugh,Dennis Zent</t>
+  </si>
+  <si>
+    <t>Daniel Leonard,Randy Truitt,Timothy Brown,Robert Cherry,Jeffrey Thompson,Michael Karickhoff,Matthew Ubelhor,James Baird,Sharon Negele,Peggy Mayfield,David Ober,Harold Slager,Holli Sullivan,Mike Braun,David Niezgodski,Gail Riecken,Sheila Klinker,Terry Goodin,Edward DeLaney,Cherrish Pryor,Gregory Porter</t>
+  </si>
+  <si>
+    <t>HB1478</t>
+  </si>
+  <si>
+    <t>Marion County fire consolidation. Authorizes the consolidation of a township fire department or fire protection territory in Marion County into the fire department of the consolidated city if the following occur: (1) The mayor of the consolidated city adopts a resolution approving the consolidation. (2) The city-county council adopts an ordinance approving the consolidation. (3) The mayor of the consolidated city approves the ordinance of the city-county council. Provides that a consolidation is effective on the date set forth in the ordinance adopted by the city-county council. Provides for the transfer of cumulative building and equipment fund balances debt service</t>
+  </si>
+  <si>
+    <t>Gerald Torr,James Merritt,Randall Frye,Cindy Kirchhofer,Dan Forestal</t>
+  </si>
+  <si>
+    <t>Gail Riecken,David Wolkins,Sue Errington,Kevin Mahan,Wendy McNamara,Cindy Kirchhofer,Doug Miller,Timothy Harman,Jim Lucas,Julie Olthoff,Earl Harris,John Bartlett</t>
+  </si>
+  <si>
+    <t>HB1393</t>
+  </si>
+  <si>
+    <t>Various motor vehicle matters. Amends various title registration and driver's license requirements and taxing of vehicles. Provides that a partial services provider may impose collect and retain a convenience fee subject to the approval of the bureau of motor vehicles commission. Requires the bureau of motor vehicles (bureau) to have an annual internal audit. Revises requirements for requests by the bureau for evidence of financial responsibility following an accident or a judgment or conviction for a violation of a motor vehicle law. Establishes administrative review procedures for claims of material error by the bureau. Repeals various provisions concerning: (1) commercial</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Carlin Yoder,Philip Boots,Earline Rogers,Sharon Negele</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Thomas Saunders,Randall Frye,Robert Morris,Mike Speedy,Charlie Brown,Ben Smaltz,Holli Sullivan,Curt Nisly,Mike Braun,Cherrish Pryor,Dan Forestal</t>
+  </si>
+  <si>
+    <t>Agency rulemaking and policymaking. Provides that an agency's statutory authority to regulate and implement programs does not include rulemaking or policymaking authority that is not based upon a federal requirement or that exceeds the authority granted to a federal or state agency under federal statutory authority. Provides an exception that rules guidelines standards or other policies that are not based upon a federal requirement or specific statutory authority may be based upon: (1) the general authority of an agency subject to limits in the grant of the authority and upon the subject matter; or (2) the power to adopt emergency</t>
+  </si>
+  <si>
+    <t>Terry Goodin,David Wolkins,Susan Glick,Timothy Harman,Christopher Judy</t>
+  </si>
+  <si>
+    <t>David Wolkins,Wendy McNamara,Cindy Kirchhofer,Doug Miller,Timothy Harman,Jim Lucas,Julie Olthoff,Gail Riecken,Earl Harris,John Bartlett,Sue Errington</t>
+  </si>
+  <si>
+    <t>HB1359</t>
+  </si>
+  <si>
+    <t>Immunizations. Requires the state department of health (department) to establish a program to provide information about the human papillomavirus (HPV) to parents health care providers and other individuals approved to administer the HPV vaccine and to establish goals and plans to increase the vaccination rate for the HPV infection. Requires the department to prepare an annual report concerning the program. Repeals and relocates the immunization laws from the education laws to the health laws. Requires a school to provide parents of grade 6 students information concerning the HPV infection. (Current law requires the information to be provided to the parents</t>
+  </si>
+  <si>
+    <t>Edward Clere,Sue Errington,Cindy Kirchhofer,Robin Shackleford</t>
+  </si>
+  <si>
+    <t>Edward Clere,David Frizzell,Gregory Porter,Donald Lehe,Ronald Bacon,Steven Davisson,Cindy Kirchhofer,Charlie Brown,Robin Shackleford,Harold Slager,Dennis Zent</t>
+  </si>
+  <si>
+    <t>HB1472</t>
+  </si>
+  <si>
+    <t>Specifies that an attorney employed by a state agency is subject to the attorney-client and work product privileges. Permits a county council to impose a local service fee on each person that has business personal property exempt from taxation because the person's business personal property in the county has an acquisition cost of less than $20000. Authorizes the department of local government finance (DLGF) to increase the maximum property tax levy of Brown Township Jackson Township and Blue River Township in Hancock County if the township submits a petition to the DLGF requesting the increase. Specifies the maximum increase that</t>
+  </si>
+  <si>
+    <t>Brandt Hershman,Sharon Negele,Pete Miller</t>
+  </si>
+  <si>
+    <t>Sheila Klinker,Daniel Leonard,Randy Truitt,Timothy Brown,Robert Cherry,Jeffrey Thompson,Steven Davisson,Michael Karickhoff,James Baird,Sharon Negele,Todd Huston,Peggy Mayfield,David Ober,Harold Slager,Holli Sullivan,David Niezgodski,Gail Riecken,Terry Goodin,Edward DeLaney,Cherrish Pryor</t>
+  </si>
+  <si>
+    <t>SB0466</t>
+  </si>
+  <si>
+    <t>Various election matters. Provides that the election division rather than the Indiana election commission approves a uniform set of election and registration forms for use throughout Indiana. Provides that a person who is physically present in a precinct for a temporary purpose does not gain residency in the precinct. Adds language concerning where a student attending a postsecondary educational institution may register to vote. Permits voter conversations and communications including the use of cellular telephones and other electronic devices in the polls as long as loud and disruptive conversations and electioneering do not occur. Prohibits a voter from taking a</t>
+  </si>
+  <si>
+    <t>Kathy Richardson,Michael Young,Pete Miller</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Kathy Richardson,Philip GiaQuinta,Milo Smith,Timothy Wesco,Casey Cox,Anthony Cook,Clyde Kersey,Charles Moseley,John Bartlett</t>
+  </si>
+  <si>
+    <t>HB1425</t>
+  </si>
+  <si>
+    <t>Court fees. Automated record keeping fee. Provides that after June 30 2015 the automated record keeping fee collected for all civil criminal infraction and ordinance violation actions except actions concerning pretrial diversion programs and deferral programs is $9. Specifies that 100% of the $9 automated record keeping fee is distributed to the auditor of state for deposit in the state user fee fund. Provides that after June 30 2015 the automated record keeping fee with respect to actions resulting in the accused person entering into a: (1) pretrial diversion program agreement; or (2) deferral program agreement; is $5. Specifies that</t>
+  </si>
+  <si>
+    <t>Gregory Steuerwald,Gerald Torr,Edward DeLaney,Howard Kenley,Brent Waltz,John Broden,Judson McMillin,Rodric Bray</t>
+  </si>
+  <si>
+    <t>Sheila Klinker,Daniel Leonard,Timothy Brown,Robert Cherry,Terry Goodin,Edward DeLaney,Cherrish Pryor,Gregory Porter,Steven Davisson,Michael Karickhoff,James Baird,Sharon Negele,Harold Slager,Holli Sullivan,Peggy Mayfield,Mike Braun</t>
+  </si>
+  <si>
+    <t>HB1485</t>
+  </si>
+  <si>
+    <t>Local taxation. Provides for a transition from the county adjusted gross income tax (CAGIT) the county option income tax (COIT) the county economic development income tax (CEDIT) and the various local income taxes for special purposes and special projects to a single local income tax with three rate components. Retains special distributions. Specifies that the transition is to take effect in 2017. Provides for a report by the office of management and budget to the legislative council in 2015 showing the effect of the transition on taxing units and taxpayers. Authorizes Rush County to impose a CAGIT tax rate for</t>
+  </si>
+  <si>
+    <t>Jeffrey Thompson,Travis Holdman,Brandt Hershman</t>
+  </si>
+  <si>
+    <t>David Niezgodski,Gail Riecken,Sheila Klinker,Daniel Leonard,Timothy Brown,Robert Cherry,Terry Goodin,Edward DeLaney,Cherrish Pryor,Jeffrey Thompson,Steven Davisson,Michael Karickhoff,James Baird,Sharon Negele,Todd Huston,Peggy Mayfield,David Ober,Harold Slager,Holli Sullivan</t>
+  </si>
+  <si>
+    <t>HB1453</t>
+  </si>
+  <si>
+    <t>Hunting preserves. Provides for the initial licensing and operation of hunting preserves: (1) on which Indiana farm raised and released cervidae are hunted; and (2) that operated during the 2014 calendar year. Establishes licensing requirements inspection requirements and fees. Exempts licensed hunting preserves from the licensing requirements for game breeders and shooting preserves. Provides that hunters on hunting preserves are required to have a special hunting license. Specifies that the fee for the special hunting license is equal to the fee for a nonresident annual hunting license. Provides that hunters are not subject to bag limits. Requires that a transportation</t>
+  </si>
+  <si>
+    <t>Daniel Leonard,Mark Messmer,Donald Lehe,Sean Eberhart,Carlin Yoder,Brent Steele,Jean Leising,Susan Glick,David Ober</t>
+  </si>
+  <si>
+    <t>David Wolkins,Sean Eberhart,Robert Heaton,Michael Karickhoff,Matthew Ubelhor,Alan Morrison,Micheal Aylesworth,Christopher Judy,Clyde Kersey,Charles Moseley,Sue Errington,Lloyd Arnold</t>
+  </si>
+  <si>
+    <t>Property tax matters. Specifies that if a taxpayer files an amended personal property tax return for a year: (1) before July 16 of that year the taxpayer shall pay the taxes payable in the immediately succeeding year based on the assessed value reported on the amended return; or (2) after July 15 of that year the taxpayer shall pay the taxes payable in the immediately succeeding year based on the assessed value reported on the original personal property tax return. Requires a public utility company to file its property tax return with the department of local government finance (DLGF) on</t>
+  </si>
+  <si>
+    <t>Daniel Leonard,Howard Kenley,John Broden,Ryan Mishler,Jon Ford</t>
+  </si>
+  <si>
+    <t>Daniel Leonard,Timothy Brown,Robert Cherry,Jeffrey Thompson,Steven Davisson,Michael Karickhoff,James Baird,Sharon Negele,Todd Huston,Peggy Mayfield,David Ober,Harold Slager,Holli Sullivan,David Niezgodski,Gail Riecken,Sheila Klinker,Terry Goodin,Edward DeLaney,Cherrish Pryor,Gregory Porter</t>
+  </si>
+  <si>
+    <t>HB1469</t>
+  </si>
+  <si>
+    <t>Wage payment and wage assignment. Provides that an employer who fails to make timely payment of wages or withholds wages shall pay the wages due a reasonable fee for the plaintiff's attorney and court costs. Provides that if a court finds that the failure to pay the employee was not in good faith the court shall order that the employee be paid an amount equal to two times the amount of wages due the employee as liquidated damages. Provides that an employee may assign wages for: (1) the purchase rental or use of uniforms or equipment necessary to fulfill the</t>
+  </si>
+  <si>
+    <t>Philip Boots,David Ober,Martin Carbaugh,Clyde Perfect</t>
+  </si>
+  <si>
+    <t>Eric Koch,Gregory Steuerwald,Wendy McNamara,Thomas Washburne,Casey Cox,William Fine,Patrick Bauer</t>
+  </si>
+  <si>
+    <t>HB1405</t>
+  </si>
+  <si>
+    <t>State examiner attorney general and prosecuting attorneys. Provides that if the state examiner of the state board of accounts: (1) refers to a prosecuting attorney certain violations of the law that were committed by a local public officer concerning the state examiner or the state board of accounts; and (2) discovers that a subsequent unrelated violation has been committed by the local public officer; the state examiner may refer the matter to the attorney general. Allows the attorney general to: (1) bring a civil action to remove the local public officer from office; and (2) combine the civil action with</t>
+  </si>
+  <si>
+    <t>Rick Niemeyer,Harold Slager,William Fine</t>
+  </si>
+  <si>
+    <t>Gregory Steuerwald,Matthew Lehman,Judson McMillin,Wendy McNamara,Cindy Kirchhofer,Thomas Washburne,Cindy Ziemke,Casey Cox</t>
+  </si>
+  <si>
+    <t>HB1414</t>
+  </si>
+  <si>
+    <t>School safety drills. Allows a school to substitute a tornado drill or manmade occurrence disaster drill for not more than two fire drills each semester. Provides that the substitutions may not be made in consecutive months. Provides that the governing body of a school corporation may direct schools to conduct additional emergency preparedness drills.</t>
+  </si>
+  <si>
+    <t>Dennis Kruse,Patricia Miller,Lonnie Randolph,Scott Schneider,Brent Waltz,Mike Speedy,Justin Moed,Anthony Cook</t>
+  </si>
+  <si>
+    <t>Terri Jo Austin,Edward Clere,Charles Burton,Jeffrey Thompson,Robert Behning,Sue Errington,Rhonda Rhoads,Dale DeVon,Justin Moed,Jim Lucas,William Fine,Anthony Cook,Vernon Smith</t>
+  </si>
+  <si>
+    <t>HB1360</t>
+  </si>
+  <si>
+    <t>Massage therapists. Provides that massage therapists are governed by the health professions standards of practice. (Under current law massage therapists are governed by the professional licensing standards of practice.)</t>
+  </si>
+  <si>
+    <t>David Frizzell,Patricia Miller,Ronnie Alting,Sue Errington,Ronald Bacon,Dennis Zent</t>
+  </si>
+  <si>
+    <t>Patrick Bauer,Edward Clere,David Frizzell,Donald Lehe,Ronald Bacon,Steven Davisson,Cindy Kirchhofer,Robin Shackleford,Harold Slager,Dennis Zent</t>
+  </si>
+  <si>
+    <t>HB1432</t>
+  </si>
+  <si>
+    <t>Regulation of e-liquids. Defines "e-liquid" as a substance that is intended to be vaporized and inhaled using a vapor pen. Requires a manufacturer of e-liquid to obtain a permit from the alcohol and tobacco commission before bottling e-liquid or selling e-liquid to retailers or distributors. Provides that the initial application for a manufacturing permit must include: (1) plans for the applicant's manufacturing facility; (2) a service agreement between the applicant and a security firm requiring the security firm to certify that the manufacturer meets certain security requirements; and (3) an application fee of $1000. Provides that a manufacturer's permit is</t>
+  </si>
+  <si>
+    <t>David Niezgodski,Terri Jo Austin,Gregory Steuerwald,Linda Lawson,Sheila Klinker,Gerald Torr,Daniel Leonard,Randy Truitt,Vanessa Summers,Thomas Dermody,Timothy Brown,Robert Cherry,Cherrish Pryor,Kathy Richardson,Matthew Lehman,Jeffrey Thompson,Philip GiaQuinta,Doug Gutwein,Donald Lehe,Sean Eberhart,Bruce Borders,James Arnold,Carlin Yoder,Lonnie Randolph,Sue Errington,Ronald Bacon,Steven Davisson,Robert Heaton,Kevin Mahan,Robert Morris,Heath VanNatter,Michael Karickhoff,Matthew Ubelhor,Milo Smith,James Baird,Wendy McNamara,Timothy Wesco,Cindy Kirchhofer,Mike Speedy,Lloyd Arnold,Doug Miller,Charlie Brown,Dale DeVon,Sharon Negele,Christina Hale,John Price,Martin Carbaugh,Jim Lucas,Cindy Ziemke,Dennis Zent,Greg Beumer,Christopher Judy,William Fine,Julie Olthoff,Melanie Wright,Mike Braun,Donna Schaibley,Anthony Cook</t>
+  </si>
+  <si>
+    <t>Terri Jo Austin,Vanessa Summers,Thomas Dermody,Matthew Lehman,Philip GiaQuinta,Sean Eberhart,Timothy Wesco,Ben Smaltz,Jim Lucas,Edward Clere,Charlie Brown</t>
+  </si>
+  <si>
+    <t>HB1008</t>
+  </si>
+  <si>
+    <t>Various election law matters. Provides that a candidate vacancy due to the withdrawal of a candidate that occurs after noon July 15 and before noon August 1 is filled by a caucus of precinct committeemen of the political party and election district having the candidate vacancy. Provides that notice of such a caucus must be given in accordance with the rules of the political party having the candidate vacancy. Requires such a candidate vacancy to be filled by not later than noon August 15. Provides that a candidate vacancy due to the withdrawal of a candidate that occurs later than</t>
+  </si>
+  <si>
+    <t>Thomas Dermody,Kathy Richardson,Michael Young,Greg Walker,Michael Delph,Milo Smith,David Ober</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Kathy Richardson,Jeffrey Thompson,Milo Smith,Timothy Wesco,Lloyd Arnold,Casey Cox,Anthony Cook,Clyde Kersey,Charles Moseley,John Bartlett,Philip GiaQuinta</t>
+  </si>
+  <si>
+    <t>State biennial budget. Appropriates money for capital expenditures the operation of the state the delivery of Medicaid and other services and various other distributions and purposes. Specifies higher education capital projects authorized to be constructed using bonds. Establishes a historic preservation grant program and provides that the income tax credit for historic preservation does not apply to expenditures made after June 30 2016. Specifies that the budget report must include a list of tax expenditure items. Specifies that for financial reporting purposes the state's combined general fund reserves include the balances of the general fund the Medicaid contingency and reserve</t>
+  </si>
+  <si>
+    <t>Timothy Brown,Robert Cherry,Gregory Porter,Howard Kenley,Karen Tallian,Dennis Kruse,Brandt Hershman,Michael Karickhoff</t>
+  </si>
+  <si>
+    <t>Daniel Leonard,Randy Truitt,Timothy Brown,Robert Cherry,Jeffrey Thompson,Steven Davisson,Michael Karickhoff,Matthew Ubelhor,James Baird,Sharon Negele,Peggy Mayfield,David Ober,Harold Slager,Holli Sullivan,Mike Braun,David Niezgodski,Gail Riecken,Sheila Klinker,Terry Goodin,Edward DeLaney,Cherrish Pryor,Gregory Porter</t>
+  </si>
+  <si>
+    <t>HB1009</t>
+  </si>
+  <si>
+    <t>Innovation network schools. Provides for innovation network school programs in school corporations. Establishes the career pathways pilot program. Establishes the innovation network school pilot grant. Repeals the article relating to the establishment of innovation network schools by the Indianapolis Public Schools.</t>
+  </si>
+  <si>
+    <t>Vernon Smith,Terri Jo Austin,Jeffrey Thompson,Robert Behning,Howard Kenley,Dennis Kruse,Carlin Yoder,Earline Rogers,Ryan Mishler,Jon Ford</t>
+  </si>
+  <si>
+    <t>Gail Riecken,Sheila Klinker,Daniel Leonard,Randy Truitt,Timothy Brown,Robert Cherry,Terry Goodin,Cherrish Pryor,Jeffrey Thompson,Gregory Porter,Steven Davisson,Michael Karickhoff,Sharon Negele,Peggy Mayfield,David Ober,Harold Slager,Holli Sullivan,David Niezgodski,Edward DeLaney,James Baird</t>
+  </si>
+  <si>
+    <t>HB1497</t>
+  </si>
+  <si>
+    <t>Reemployment services for unemployment recipients. Provides that certain individuals who have been determined by the department of workforce development to need reemployment services may be required to participate in certain additional services provided by the department of workforce development.</t>
+  </si>
+  <si>
+    <t>Philip Boots,Susan Glick,Greg Beumer</t>
+  </si>
+  <si>
+    <t>Gerald Torr,Doug Gutwein,Robert Morris,Timothy Wesco,Timothy Harman,David Ober,Martin Carbaugh,David Niezgodski,Linda Lawson,Charles Moseley,John Bartlett</t>
+  </si>
+  <si>
+    <t>HB1516</t>
+  </si>
+  <si>
+    <t>County assessors. Provides that a candidate for county assessor who held the office on May 1 of the election year must have attained the certification of a level three assessor-appraiser before taking office. Provides that a candidate for county assessor who did not hold the office on May 1 of the election year must have attained the certification of a level two assessor-appraiser before taking office.</t>
+  </si>
+  <si>
+    <t>Scott Schneider,Milo Smith</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Charles Moseley,Kathy Richardson,John Bartlett,Jeffrey Thompson,Philip GiaQuinta,Milo Smith,Timothy Wesco,Lloyd Arnold,Casey Cox,Anthony Cook</t>
+  </si>
+  <si>
+    <t>HB1609</t>
+  </si>
+  <si>
+    <t>State board of education. Provides that the members of the state board of education shall elect annually a chairperson from the members of the state board.</t>
+  </si>
+  <si>
+    <t>Travis Holdman,Judson McMillin,Timothy Wesco,Alan Morrison</t>
+  </si>
+  <si>
+    <t>Edward Clere,Charles Burton,Robert Behning,Rhonda Rhoads,Dale DeVon,Jim Lucas,William Fine,Anthony Cook,Terri Jo Austin,Sue Errington,Justin Moed</t>
+  </si>
+  <si>
+    <t>HB1601</t>
+  </si>
+  <si>
+    <t>Various workforce development matters. Reorganizes and recodifies the duties and programs of the department of workforce development (department). Allows the division of family resources and the department to enter into a memorandum of understanding concerning administering federal work requirements for public welfare programs. Permits the Indiana career council to meet only at the call of the chair rather than monthly. Repeals obsolete expired and superseded provisions. Updates cross-references and makes conforming and technical changes.</t>
+  </si>
+  <si>
+    <t>Sheila Klinker,James Buck,Susan Glick,Ben Smaltz</t>
+  </si>
+  <si>
+    <t>Gerald Torr,Wes Culver,Robert Morris,Doug Miller,Dan Forestal,Timothy Harman,Karlee Macer,Robin Shackleford,Ben Smaltz,William Fine,Julie Olthoff</t>
+  </si>
+  <si>
+    <t>HB1507</t>
+  </si>
+  <si>
+    <t>State building commissioner. Requires the state building commissioner: (1) to have at least 10 years of experience in the building trades industry at least five years of management experience and a bachelor's degree in a construction related field; or (2) to have at least five years of industry experience at least five years of management experience and to be a registered or licensed architect or engineer or have a master's degree in a construction related field.</t>
+  </si>
+  <si>
+    <t>Gail Riecken,Carlin Yoder,Heath VanNatter,Jim Lucas</t>
+  </si>
+  <si>
+    <t>Gail Riecken,Earl Harris,David Wolkins,Kevin Mahan,Wendy McNamara,Doug Miller,Timothy Harman,Jim Lucas,Julie Olthoff,John Bartlett,Sue Errington</t>
+  </si>
+  <si>
+    <t>HB1638</t>
+  </si>
+  <si>
+    <t>State intervention in failing schools. Changes the timeline from six years to four years for state intervention for a school initially placed in the lowest category or designation of school improvement after June 30 2016. Makes various changes to the provisions relating to management of turnaround academes by special management teams. Provides that a school may not offer any item of monetary value to a student or the parent of a student in exchange for enrolling at the school. Repeals a provision relating to a correction of a disbursement of state and federal funds to the Indianapolis Public Schools for</t>
+  </si>
+  <si>
+    <t>Robert Behning,Dennis Kruse,Carlin Yoder,Lonnie Randolph,Earline Rogers,Pete Miller</t>
+  </si>
+  <si>
+    <t>Daniel Leonard,Timothy Brown,Robert Cherry,Jeffrey Thompson,Steven Davisson,Michael Karickhoff,James Baird,Peggy Mayfield,Harold Slager,Holli Sullivan,Mike Braun,Sheila Klinker,Terry Goodin,Edward DeLaney,Cherrish Pryor,Gregory Porter</t>
+  </si>
+  <si>
+    <t>HB1340</t>
+  </si>
+  <si>
+    <t>Terri Jo Austin,Matthew Lehman,Randall Head</t>
+  </si>
+  <si>
+    <t>Gail Riecken,Wes Culver,Charles Burton,Robert Heaton,Sharon Negele,Richard Hamm,Justin Moed,John Price,Thomas Washburne,Greg Beumer,Donna Schaibley</t>
+  </si>
+  <si>
+    <t>HB1636</t>
+  </si>
+  <si>
+    <t>Charter schools. Provides that a governing body of a school corporation a state educational institution and a nonprofit college or university must register with the state board of education (state board) if it has not previously issued a charter for any charter school prior to July 1 2015. Makes changes to the definition of an "organizer". Requires the state board to provide a formal evaluation of the overall state of charter school outcomes in Indiana every five years. Provides that a charter school may give enrollment preference to children of the charter school's founders governing body members and charter school</t>
+  </si>
+  <si>
+    <t>Robert Behning,Dennis Kruse,Carlin Yoder,Justin Moed</t>
+  </si>
+  <si>
+    <t>Vernon Smith,Terri Jo Austin,Charles Burton,Jeffrey Thompson,Robert Behning,Sue Errington,Rhonda Rhoads,Dale DeVon,Jim Lucas,William Fine,Anthony Cook</t>
+  </si>
+  <si>
+    <t>HB1548</t>
+  </si>
+  <si>
+    <t>Midwives. Removes the requirement that a direct entry midwife (midwife) have a collaborative agreement with a physician requiring that the midwife's client have a consulting physician. Requires a client to be examined by a physician who is qualified in obstetrics and gynecology at certain times during the pregnancy unless the client refuses and meets certain conditions. Extends the date: (1) by which a midwife is required to submit certain information to obtain an exemption from certain certification requirements; (2) relating to restrictions of use of the title "certified direct entry midwife"; and (3) after which practicing midwifery without a certificate</t>
+  </si>
+  <si>
+    <t>Edward Clere,David Frizzell,Donald Lehe,Patricia Miller,Charlie Brown</t>
+  </si>
+  <si>
+    <t>Patrick Bauer,Edward Clere,David Frizzell,Gregory Porter,Donald Lehe,Steven Davisson,Charlie Brown,Robin Shackleford,Harold Slager,Dennis Zent,Ronald Bacon,Cindy Kirchhofer</t>
+  </si>
+  <si>
+    <t>SB0061</t>
+  </si>
+  <si>
+    <t>Voting matters. Provides that when a voter casts a straight party ticket in a general or municipal election the voter is casting a ballot for all candidates of that party whose names appear on the ballot except candidates for offices in a county or municipality for which more than one individual can be elected (county council member at large; city common council member at large; town council member at large; township board member at large). Groups such offices together on the general election ballot and requires a voter to cast an individual vote for each candidate for such offices for</t>
+  </si>
+  <si>
+    <t>Kathy Richardson,Randall Head,Greg Walker,Milo Smith,David Ober,Pete Miller</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Clyde Kersey,Charles Moseley,Kathy Richardson,John Bartlett,Milo Smith,Timothy Wesco,Lloyd Arnold,Casey Cox,Anthony Cook,Philip GiaQuinta</t>
+  </si>
+  <si>
+    <t>SB0091</t>
+  </si>
+  <si>
+    <t>Release of identifying adoption information. Repeals effective July 1 2018 provisions applicable to adoptions finalized before January 1 1994 that prohibit the release of identifying adoption information unless a consent to release the information is on file. Provides that beginning July 1 2018 identifying adoption information may be released unless a nonrelease form is on file regardless of when the adoption was filed. (Under current law this provision applies only to adoptions filed after December 31 1993.) Replaces a nonrelease form with a contact preference form. Provides that a nonrelease form submitted before July 1 2018 remains in effect unless</t>
+  </si>
+  <si>
+    <t>Patrick Bauer,Gregory Steuerwald,Doug Gutwein,Travis Holdman,Greg Taylor,Randall Head,Michael Young,Lonnie Randolph,Brent Steele,James Buck,Michael Delph,James Tomes,Susan Glick,Wendy McNamara</t>
+  </si>
+  <si>
+    <t>Eric Koch,Vernon Smith,Patrick Bauer,Gregory Steuerwald,Daniel Leonard,Edward DeLaney,Kathy Richardson,Wendy McNamara,Casey Cox,William Fine,Donna Harris,Gerald Torr,Thomas Washburne</t>
+  </si>
+  <si>
+    <t>SB0080</t>
+  </si>
+  <si>
+    <t>Ephedrine and pseudoephedrine. Requires the Indiana board of pharmacy (board) to adopt emergency rules that are effective July 1 2016 concerning: (1) professional determinations made; and (2) a relationship on record with the pharmacy; concerning the sale of ephedrine or pseudoephedrine. Requires the board to: (1) review professional determinations made; and (2) discipline a pharmacist who violates a rule concerning a professional determination made; concerning the sale of ephedrine or pseudoephedrine. Allows the board in consultation with the state police to declare a product to be an extraction resistant or a conversion resistant form of ephedrine or pseudoephedrine. Specifies that</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Brian Bosma,Clyde Kersey,Gail Riecken,Wes Culver,Steven Stemler,Ed Charbonneau,Travis Holdman,Randall Head,Dennis Kruse,James Merritt,Lonnie Randolph,Lonnie Randolph,Brandt Hershman,Brent Steele,Vaneta Becker,Earline Rogers,Ronald Bacon,Steven Davisson,Robert Heaton,Milo Smith,Susan Glick,Wendy McNamara,Lloyd Arnold,Doug Miller,Charlie Brown,Christina Hale,Timothy Harman,Karlee Macer,Alan Morrison,David Ober,Ben Smaltz,Jim Lucas,Dennis Zent,Greg Beumer,Jon Ford</t>
+  </si>
+  <si>
+    <t>Robert Behning,Donald Lehe,Steven Davisson,Cindy Kirchhofer,Harold Slager,Dennis Zent,Edward Clere,David Frizzell,Gregory Porter,Charlie Brown,Robin Shackleford</t>
+  </si>
+  <si>
+    <t>SB0109</t>
+  </si>
+  <si>
+    <t>Regulation of wild animals and hunting preserves. Excludes the wild animal permit from the law requiring notice and hearing on an application for certain permits. Provides that certain fish and wildlife laws do not apply to certain legally owned captive bred cervidae and members of the bovidae family that may be hunted as permitted animals on hunting preserves. Provides for the initial licensing by the state board of animal health of hunting preserves on which permitted animals are hunted. Establishes licensing requirements inspection requirements and fees. Exempts licensed hunting preserves and cervidae livestock operations from the licensing requirements for game</t>
+  </si>
+  <si>
+    <t>David Niezgodski,Terry Goodin,Mark Messmer,Donald Lehe,Sean Eberhart,James Arnold,Brent Steele,James Tomes</t>
+  </si>
+  <si>
+    <t>David Wolkins,Sean Eberhart,Robert Heaton,Michael Karickhoff,Alan Morrison,Micheal Aylesworth,Christopher Judy,Jeff Ellington,Clyde Kersey,Sue Errington,Lloyd Arnold,Donna Harris</t>
+  </si>
+  <si>
+    <t>SB0020</t>
+  </si>
+  <si>
+    <t>Workforce policies. Provides that a local governmental unit may not establish mandate or otherwise require an employer to provide to an employee who is employed within the jurisdiction of the unit a scheduling policy that exceeds the requirements of federal or state law rules or regulations unless federal or state law provides otherwise. Provides that an attorney who represents an employer an employing unit or a claimant in a claim for unemployment benefits (benefits) pending before an administrative law judge the review board or another individual who adjudicates claims must be: (1) an attorney in good standing admitted to the</t>
+  </si>
+  <si>
+    <t>Doug Gutwein,Lonnie Randolph,Greg Walker,Philip Boots,Timothy Wesco,Timothy Harman</t>
+  </si>
+  <si>
+    <t>Gerald Torr,Doug Gutwein,Robert Morris,Timothy Wesco,Mike Speedy,Timothy Harman,David Ober,Martin Carbaugh,Randy Lyness,David Niezgodski,Linda Lawson,Charles Moseley,John Bartlett</t>
+  </si>
+  <si>
+    <t>SB0162</t>
+  </si>
+  <si>
+    <t>Hospital immunizations. Urges the legislative council to refer to an interim study committee topics concerning hospital immunizations.</t>
+  </si>
+  <si>
+    <t>James Arnold,Frank Mrvan,Patricia Miller,Lonnie Randolph,Ryan Mishler,Cindy Kirchhofer,Charlie Brown</t>
+  </si>
+  <si>
+    <t>Patrick Bauer,Robert Behning,Donald Lehe,Ronald Bacon,Steven Davisson,Cindy Kirchhofer,Charlie Brown,Dennis Zent,David Frizzell,Robin Shackleford,Harold Slager</t>
+  </si>
+  <si>
+    <t>SB0165</t>
+  </si>
+  <si>
+    <t>Healthy Indiana plan. Repeals the prior healthy Indiana plan statutes and makes revisions to the currently operating healthy Indiana plan. Repeals statutes governing the high risk Indiana check-up plan.</t>
+  </si>
+  <si>
+    <t>Timothy Brown,Matthew Lehman,Ed Charbonneau,Patricia Miller,Vaneta Becker,Charlie Brown</t>
+  </si>
+  <si>
+    <t>David Frizzell,Robert Behning,Donald Lehe,Ronald Bacon,Steven Davisson,Cindy Kirchhofer,Harold Slager,Dennis Zent,Edward Clere,Gregory Porter,Charlie Brown,Robin Shackleford</t>
+  </si>
+  <si>
+    <t>HB1075</t>
+  </si>
+  <si>
+    <t>Sewage fees and municipal sanitary sewer. Provides that if a wastewater utility charges different rates for different classes of property based at least partially on consumption the utility must charge a rental unit community a rate based at least partially on consumption. Provides that despite a contrary administrative rule a person who uses a wastewater management vehicle to remove wastewater from a customer's sewage disposal system need not show on the invoice provided to the customer: (1) the date on which the wastewater was removed; or (2) the amount of wastewater removed; if the sewage disposal system is a chemical</t>
+  </si>
+  <si>
+    <t>David Niezgodski,David Wolkins,Philip Boots,Vaneta Becker,Ronald Bacon,Mark Stoops,Rick Niemeyer,Greg Beumer,Eric Bassler,Elizabeth Brown</t>
+  </si>
+  <si>
+    <t>William Friend,David Wolkins,Ryan Dvorak,Donald Lehe,Sean Eberhart,Heath VanNatter,Greg Beumer,Micheal Aylesworth,Donna Schaibley,Patrick Bauer,Matt Pierce,Sue Errington</t>
+  </si>
+  <si>
+    <t>Sales of bullion or currency. Provides a sales tax exemption for transactions involving the sale of: (1) coins that are permitted investments by an individual retirement account under federal law; (2) bullion that is a permitted investment by an individual retirement account under federal law; or (3) legal tender. Authorizes the secretary of state to issue a temporary registration to a foreign entity that wishes to sell precious metals bullion or currency at a trade fair or coin show in Indiana and is not otherwise lawfully authorized to conduct business in Indiana. Provides that a registration issued to a foreign</t>
+  </si>
+  <si>
+    <t>David Niezgodski,David Wolkins,Dennis Kruse,Lonnie Randolph,Brandt Hershman,Scott Schneider,Earline Rogers,Robert Heaton,Greg Beumer,Jeff Raatz</t>
+  </si>
+  <si>
+    <t>David Niezgodski,Sheila Klinker,Edward Clere,Randy Truitt,Timothy Brown,Jeffrey Thompson,Steven Stemler,Steven Davisson,Michael Karickhoff,James Baird,Sharon Negele,Todd Huston,Peggy Mayfield,Harold Slager,Holli Sullivan,Mike Braun,Gail Riecken,Daniel Leonard,Edward DeLaney,Cherrish Pryor,Gregory Porter</t>
+  </si>
+  <si>
+    <t>HB1024</t>
+  </si>
+  <si>
+    <t>Political subdivision risk management. Requires the Indiana Public Employer's Plan Inc. (IPEP) which was established as a domestic nonprofit corporation to apply for a certificate of authority to transact business as a domestic mutual insurance company. Provides that upon receiving the certificate of authority and beginning to transact business as a domestic mutual insurance company the domestic mutual insurance company succeeds to all powers duties agreements and liabilities of IPEP. Provides that on January 1 2017 (unless IPEP fails to begin operating as a domestic mutual insurance company under a certificate of authority issued by the insurance commissioner by that</t>
+  </si>
+  <si>
+    <t>Gerald Torr,Travis Holdman</t>
+  </si>
+  <si>
+    <t>Gerald Torr,Charles Burton,Matthew Lehman,Gregory Porter,Robert Heaton,Richard Hamm,Peggy Mayfield,Martin Carbaugh,Melanie Wright</t>
+  </si>
+  <si>
+    <t>HB1053</t>
+  </si>
+  <si>
+    <t>Regulation of packaging materials. Amends the home rule statute to prohibit a local government unit from: (1) regulating: (A) certain activities with respect to reusable or disposable auxiliary containers designed for one time use or for transporting merchandise or food from food or retail facilities (auxiliary containers); or (B) a manufacturer of a distributor of or a food or retail facility that sells provides or otherwise makes use of auxiliary containers in connection with certain activities involving auxiliary containers; or (2) imposing any prohibition restriction fee or tax with respect to auxiliary containers or to a manufacturer of a distributor</t>
+  </si>
+  <si>
+    <t>Brent Steele,Vaneta Becker,Ronald Bacon,Jim Lucas,Jon Ford,Erin Houchin,Clyde Perfect</t>
+  </si>
+  <si>
+    <t>Gail Riecken,David Wolkins,Kevin Mahan,Wendy McNamara,Cindy Kirchhofer,Doug Miller,Timothy Harman,Jim Lucas,Julie Olthoff,Donna Harris,Randy Truitt,Sue Errington</t>
+  </si>
+  <si>
+    <t>HB1082</t>
+  </si>
+  <si>
+    <t>Environmental rules and policies. Requires the department of environmental management (IDEM) to report annually to the legislative council: (1) any administrative rule adopted by the environmental rules board (board) or proposed by IDEM; (2) any operating policy or procedure instituted or altered by IDEM; and (3) any nonrule policy or statement put into effect by IDEM; during the previous year that constitutes a change in the policy previously followed by IDEM under the provisions of IC 13 and the rules adopted by the board. Provides that if notice given by IDEM concerning a proposed rule identifies an element of the</t>
+  </si>
+  <si>
+    <t>Terry Goodin,David Wolkins,Ed Charbonneau,Karen Tallian,Lonnie Randolph,Scott Schneider,Heath VanNatter,James Banks,James Baird,Jon Ford,Elizabeth Brown,Clyde Perfect,Jeff Raatz</t>
+  </si>
+  <si>
+    <t>William Friend,David Wolkins,Donald Lehe,Sean Eberhart,Heath VanNatter,Doug Miller,Greg Beumer,Patrick Bauer,Matt Pierce,Ryan Dvorak,Sue Errington,Micheal Aylesworth,Donna Schaibley</t>
+  </si>
+  <si>
+    <t>HB1087</t>
+  </si>
+  <si>
+    <t>Bureau of motor vehicles omnibus bill. Relocates and modifies the following after expiration or repeal: IC 9-14 (Bureau of Motor Vehicles). IC 9-15 (Bureau of Motor Vehicles Commission). IC 9-16 (License Branches). IC 9-18 (Registration). IC 9-24-6 (Commercial Driver's License). IC 9-29 (Fees) (other than IC 9-29-17 (Fees Under IC 9-32)). Establishes limits for convenience fees charged by full service and partial services providers. Changes distributions of various fees imposed by the bureau of motor vehicles. Replaces chauffeur's and public passenger chauffeur's licenses with for-hire endorsements. Establishes refund procedures for fees imposed by the bureau of motor vehicles. Amends provisions</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Gregory Steuerwald,James Arnold,Carlin Yoder,Lonnie Randolph</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Thomas Saunders,Cherrish Pryor,Steven Stemler,Randall Frye,Robert Morris,Mike Speedy,Charlie Brown,Dan Forestal,Ben Smaltz,Holli Sullivan,Curt Nisly,Mike Braun</t>
+  </si>
+  <si>
+    <t>HB1181</t>
+  </si>
+  <si>
+    <t>Department of financial institutions. Makes various changes to the laws concerning: (1) first lien mortgage lenders; (2) persons licensed under the Uniform Consumer Credit Code; (3) financial institutions; and (4) debt management companies.</t>
+  </si>
+  <si>
+    <t>Charles Burton,Travis Holdman,James Arnold,Greg Walker,Robert Heaton,Richard Hamm</t>
+  </si>
+  <si>
+    <t>Gail Riecken,Wes Culver,Charles Burton,Philip GiaQuinta,Robert Heaton,Sharon Negele,Richard Hamm,John Price,Thomas Washburne,Greg Beumer,Donna Schaibley,Justin Moed,Robin Shackleford</t>
+  </si>
+  <si>
+    <t>HB1172</t>
+  </si>
+  <si>
+    <t>Cosmetology. Adds to the definition of "cosmetology": (1) removing superfluous hair from the body by the use of depilatories waxing or tweezers; (2) shaving or trimming beards and mustaches; and (3) giving facials applying makeup and giving skin care. Requires the state board of cosmetology and barber examiners (board) to adopt rules specifying whether the definition of "cosmetology" includes the use of a straight razor. Makes changes to the definition of "manicuring". Defines "pedicuring" as cleaning dressing polishing sculpting tipping or wrapping the nails of a person's foot. Makes certain changes to the requirements to obtain a beauty culture school</t>
+  </si>
+  <si>
+    <t>Terry Goodin,Dennis Kruse,James Buck,Philip Boots,Jean Breaux,Ronald Bacon,Donna Schaibley</t>
+  </si>
+  <si>
+    <t>David Niezgodski,Charles Moseley,John Bartlett,Doug Gutwein,Robert Morris,Timothy Wesco,Timothy Harman,Martin Carbaugh,Randy Lyness,David Ober</t>
+  </si>
+  <si>
+    <t>HB1118</t>
+  </si>
+  <si>
+    <t>Alcoholic beverage permits and redevelopment. Allows the alcohol and tobacco commission to issue a total of 10 new three-way permits for on-premises consumption to the owner or proprietor of a restaurant in a municipality in Hamilton County. Allows the alcohol and tobacco commission to issue a total of 10 new one-way two-way or three-way permits for on-premises consumption to the owner or proprietor of a restaurant in a municipality in Boone County.</t>
+  </si>
+  <si>
+    <t>Terri Jo Austin,James Merritt,Todd Huston,Donna Schaibley,Anthony Cook</t>
+  </si>
+  <si>
+    <t>Terri Jo Austin,Edward Clere,Vanessa Summers,Thomas Dermody,Matthew Lehman,Philip GiaQuinta,Sean Eberhart,Charlie Brown,Todd Huston,Ben Smaltz,Jim Lucas,Jeff Ellington,Timothy Wesco</t>
+  </si>
+  <si>
+    <t>HB1127</t>
+  </si>
+  <si>
+    <t>Civil proceeding advance payment transactions. Defines a "civil proceeding advance payment transaction" or "CPAP transaction" as a nonrecourse transaction in which a person (CPAP provider) provides to a consumer claimant in a civil proceeding a funded amount the repayment of which is: (1) required only if the consumer claimant prevails in the civil proceeding; and (2) sourced from the proceeds of the civil proceeding. Permits a CPAP provider to charge: (1) a fee not exceeding an annual rate of 36% of the funded amount; (2) a servicing charge not exceeding an annual rate of 7% of the funded amount; and</t>
+  </si>
+  <si>
+    <t>Terri Jo Austin,Matthew Lehman,Travis Holdman,Greg Taylor,Randall Head,Lonnie Randolph,Robert Heaton</t>
+  </si>
+  <si>
+    <t>Gail Riecken,Wes Culver,Charles Burton,Philip GiaQuinta,Robert Heaton,Sharon Negele,Richard Hamm,Justin Moed,John Price,Greg Beumer,Donna Schaibley,Thomas Washburne</t>
+  </si>
+  <si>
+    <t>SB0352</t>
+  </si>
+  <si>
+    <t>Marion superior court judges. Provides for the selection of Marion superior court (court) judges. Establishes the 14 member Marion County judicial selection committee (committee). Provides that when the committee learns of a vacancy on the court the committee follows certain procedures which conclude in the committee sending the names of three nominees to the governor. Requires the governor to appoint one of the nominees as judge to fill the vacancy. Provides that at the end of a judge's term on the court the judge may have the question of the judge's retention on the court placed on the general election</t>
+  </si>
+  <si>
+    <t>Edward DeLaney,David Frizzell,Greg Taylor,James Merritt,Patricia Miller,Michael Young,Scott Schneider,Brent Waltz,Michael Delph</t>
+  </si>
+  <si>
+    <t>Gregory Steuerwald,Edward DeLaney,Matthew Lehman,Rhonda Rhoads,Thomas Washburne,Cindy Ziemke,Casey Cox,Randy Lyness,Matt Pierce,Ryan Dvorak</t>
+  </si>
+  <si>
+    <t>Criminal law matters. Provides that a person may be convicted of possession with intent to manufacture or deliver a controlled substance without additional evidence of intent to manufacture or deliver if the person possesses more than a specified quantity of the controlled substance. Specifies that the fact that an individual has attended a syringe exchange program may not form any part of a probable cause or reasonable suspicion determination. Permits a person placed on home detention as a condition of pretrial release to earn one day of good time credit for every four days served on pretrial home detention.</t>
+  </si>
+  <si>
+    <t>Gregory Steuerwald,Greg Taylor,Randall Head,Michael Young</t>
+  </si>
+  <si>
+    <t>Gregory Steuerwald,Edward DeLaney,Rhonda Rhoads,Wendy McNamara,Cindy Kirchhofer,Thomas Washburne,Cindy Ziemke,Casey Cox,Randy Lyness,Matt Pierce,Ryan Dvorak</t>
+  </si>
+  <si>
+    <t>SB0333</t>
+  </si>
+  <si>
+    <t>Road funding and regional cities program. Provides for the transfer of the state's excess reserves to the local road and bridge matching grant fund and the state highway fund. Provides that use tax collected on sales of gasoline is distributed differently than ordinary sales and use tax collections. Provides for income tax rate reductions for non-corporate taxpayers that are phased in from 2019 to 2025. Provides that a county may impose the county motor vehicle license excise surtax and the county wheel tax at higher rates if the county uses a transportation asset management plan approved by the department. Authorizes</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Timothy Brown,James Arnold,Dennis Kruse,James Merritt,Patricia Miller,Carlin Yoder,Brandt Hershman,Jon Ford</t>
+  </si>
+  <si>
+    <t>David Niezgodski,Daniel Leonard,Randy Truitt,Timothy Brown,Jeffrey Thompson,Michael Karickhoff,James Baird,Sharon Negele,Todd Huston,David Ober,Harold Slager,Holli Sullivan,Mike Braun,Edward Clere,Terry Goodin,Edward DeLaney,Cherrish Pryor,Gregory Porter,Steven Stemler,Steven Davisson,Peggy Mayfield</t>
+  </si>
+  <si>
+    <t>State and local taxation. Eliminates the exemption for property taxes during the planning and construction of a residence that is conveyed upon completion to a low income individual by a nonprofit organization. Restricts but does not eliminate the exemption for property taxes for improvements on real property that are constructed rehabilitated or acquired for the purpose of providing low income housing. Specifies that the payments in lieu of taxes (PILOTS) that may be required from a property owner claiming such an exemption may not be imposed for an assessment date occurring after January 1 2017. Eliminates the property tax deduction</t>
+  </si>
+  <si>
+    <t>Timothy Brown,Jeffrey Thompson,Travis Holdman,Brandt Hershman,Todd Huston</t>
+  </si>
+  <si>
+    <t>David Niezgodski,Gail Riecken,Sheila Klinker,Randy Truitt,Timothy Brown,Terry Goodin,Edward DeLaney,Cherrish Pryor,Jeffrey Thompson,Gregory Porter,Michael Karickhoff,James Baird,Sharon Negele,Todd Huston,Peggy Mayfield,Harold Slager,Holli Sullivan,Mike Braun,Edward Clere,Steven Stemler</t>
+  </si>
+  <si>
+    <t>SB0334</t>
+  </si>
+  <si>
+    <t>Various education matters. Provides that the department of education (department) shall make random visits to at least 5% of schools that are eligible to receive choice scholarships during a particular school year. (Current law provides that the department shall make random visits to at least 5% of eligible schools and charter schools.) Specifies that if a choice scholarship student changes schools during the school year after the December 1 count of special education pupils any choice scholarship amounts paid to the choice scholarship student for the remainder of the school year after the choice scholarship student enrolls in a different</t>
+  </si>
+  <si>
+    <t>Timothy Brown,Matthew Lehman,Dennis Kruse,Carlin Yoder,Ronnie Alting,Earline Rogers,James Banks,Dale DeVon,Todd Huston</t>
+  </si>
+  <si>
+    <t>Daniel Leonard,Edward Clere,Timothy Brown,Jeffrey Thompson,Michael Karickhoff,James Baird,Sharon Negele,Todd Huston,Peggy Mayfield,David Ober,Holli Sullivan,Mike Braun,David Niezgodski,Gail Riecken,Sheila Klinker,Randy Truitt,Terry Goodin,Cherrish Pryor,Gregory Porter,Steven Stemler,Steven Davisson,Harold Slager</t>
+  </si>
+  <si>
+    <t>SB0380</t>
+  </si>
+  <si>
+    <t>Redevelopment commissions. Allows members of the following boards and commissions to vote at electronic meetings: (1) A redevelopment commission (in the case of Marion County the metropolitan development commission acting as the redevelopment commission). (2) A board of directors of a redevelopment authority (in the case of Marion County the board of directors of the county convention and recreational facilities authority). (3) A military base reuse authority. Requires the redevelopment commission or military base reuse authority to adopt policies governing member participation in electronic meetings of both the commission or authority and the redevelopment authority board of directors. Provides that</t>
+  </si>
+  <si>
+    <t>Ed Charbonneau,John Broden,Ryan Mishler,Dale DeVon</t>
+  </si>
+  <si>
+    <t>Randy Truitt,David Wolkins,Kevin Mahan,Wendy McNamara,Cindy Kirchhofer,Timothy Harman,Julie Olthoff,Donna Harris,Gail Riecken,John Bartlett,Sue Errington</t>
+  </si>
+  <si>
+    <t>HB1247</t>
+  </si>
+  <si>
+    <t>Alcoholic beverage issues. Provides that the department of natural resources (department) may apply for a three-way permit for a state park. Provides that the alcohol and tobacco commission shall issue a permit to the department for a state park without: (1) publication of notice or investigation before a local board; and (2) regard to quota provisions. Provides that an annual permit fee for a three-way permit for a state park is $250.</t>
+  </si>
+  <si>
+    <t>Vanessa Summers,Thomas Dermody,Sean Eberhart,James Arnold,James Merritt,Ronnie Alting,Charlie Brown</t>
+  </si>
+  <si>
+    <t>Terri Jo Austin,Edward Clere,Vanessa Summers,Thomas Dermody,Matthew Lehman,Philip GiaQuinta,Sean Eberhart,Timothy Wesco,Charlie Brown,Ben Smaltz,Jim Lucas,Jeff Ellington</t>
+  </si>
+  <si>
+    <t>HB1337</t>
+  </si>
+  <si>
+    <t>Abortion. Requires the state department of health to develop certain information concerning perinatal hospice care. Requires physicians to provide information about perinatal hospice care to a pregnant woman who is considering an abortion because the unborn child has been diagnosed with a lethal fetal anomaly. Requires documentation as a matter of informed consent to an abortion that the pregnant woman received the required information about perinatal hospice care. Provides that the gender of the fetus and the medical indication by diagnosis code for the fetus and the mother must be reported on the pregnancy termination form for an early pre-viability</t>
+  </si>
+  <si>
+    <t>Travis Holdman,Dennis Kruse,Michael Young,Brent Steele,Scott Schneider,Brent Waltz,Ronald Bacon,James Tomes,James Banks,Peggy Mayfield,Pete Miller,Casey Cox,Elizabeth Brown,Christopher Judy</t>
+  </si>
+  <si>
+    <t>Edward Clere,Thomas Dermody,Matthew Lehman,Sean Eberhart,Timothy Wesco,Todd Huston,Ben Smaltz,Jim Lucas,Jeff Ellington,Terri Jo Austin,Vanessa Summers,Philip GiaQuinta,Charlie Brown</t>
+  </si>
+  <si>
+    <t>HB1288</t>
+  </si>
+  <si>
+    <t>Poll takers. Repeals a statute requiring an individual to respond to a poll taker visiting the individual's place of lodging. Removes provisions requiring the proprietor or manager of a place of lodging to maintain lists of residents of the place of lodging for certain periods relating to an election. Repeals related statutes.</t>
+  </si>
+  <si>
+    <t>Kathy Richardson,Philip GiaQuinta,Randall Head,James Buck,Greg Walker,Timothy Wesco,Pete Miller,Casey Cox</t>
+  </si>
+  <si>
+    <t>Clyde Kersey,Charles Moseley,Charles Burton,Kathy Richardson,Philip GiaQuinta,Milo Smith,Timothy Wesco,Lloyd Arnold,Casey Cox,Anthony Cook,John Bartlett</t>
+  </si>
+  <si>
+    <t>HB1004</t>
+  </si>
+  <si>
+    <t>School pension plans and other education matters. Establishes the teachers' defined contribution plan (plan) as an account within the Indiana state teachers' retirement fund (fund). Provides that an individual who begins employment with a school corporation in a covered position that would otherwise be eligible for membership in the fund may elect to become a member of the plan. Provides that an individual who does not elect to become a member of the plan becomes a member of the fund. Requires the board of trustees of the Indiana public retirement system (board) to establish subject to any approval from the</t>
+  </si>
+  <si>
+    <t>Randy Truitt,Robert Behning,Howard Kenley,Dennis Kruse,James Banks,Wendy McNamara,Eric Bassler</t>
+  </si>
+  <si>
+    <t>Daniel Leonard,Timothy Brown,Jeffrey Thompson,Steven Davisson,Michael Karickhoff,James Baird,Sharon Negele,Todd Huston,Peggy Mayfield,David Ober,Harold Slager,Holli Sullivan,Mike Braun,David Niezgodski,Gail Riecken,Sheila Klinker,Randy Truitt,Terry Goodin,Edward DeLaney,Cherrish Pryor,Gregory Porter,Steven Stemler</t>
+  </si>
+  <si>
+    <t>HB1395</t>
+  </si>
+  <si>
+    <t>ISTEP matters. Provides that provisions relating to high ability students apply to performance qualified school districts. Requires that scores of student responses under an ISTEP program test must be reported to the state board of education (state board) not later than July 1 of the year in which the ISTEP program test is administered. Provides that ISTEP gridded items and tech enhanced items may not be released after the ISTEP assessment. Provides that after essay questions from ISTEP program examinations have been released to the public the state board and department of education (department) shall post the questions and exemplary</t>
+  </si>
+  <si>
+    <t>Terri Jo Austin,Robert Behning,Howard Kenley,Dennis Kruse,Patricia Miller,Earline Rogers,Susan Glick,Justin Moed,Erin Houchin</t>
+  </si>
+  <si>
+    <t>Daniel Leonard,Randy Truitt,Timothy Brown,Jeffrey Thompson,Steven Davisson,Michael Karickhoff,James Baird,Sharon Negele,Todd Huston,Peggy Mayfield,David Ober,Harold Slager,Holli Sullivan,Mike Braun,David Niezgodski,Gail Riecken,Sheila Klinker,Terry Goodin,Edward DeLaney,Cherrish Pryor,Gregory Porter,Steven Stemler</t>
+  </si>
+  <si>
+    <t>Dennis Kruse,Carlin Yoder,Scott Schneider,Wendy McNamara,Timothy Wesco,Dale DeVon,Anthony Cook</t>
+  </si>
+  <si>
+    <t>Terri Jo Austin,Charles Burton,Jeffrey Thompson,Robert Behning,Rhonda Rhoads,Dale DeVon,Justin Moed,Jim Lucas,William Fine,Mike Braun,Anthony Cook,Vernon Smith,Sue Errington</t>
+  </si>
+  <si>
+    <t>HB1386</t>
+  </si>
+  <si>
+    <t>Various alcohol tobacco and e-liquid matters. Allows if certain conditions are met the holder of a retailer permit that is issued for the premises of a hotel that is owned by an accredited college or university to sell or dispense for on premise consumption only alcoholic beverages from a: (1) nonpermanent bar that is located on; or (2) service window located on the licensed premises that opens to; an outside area or terrace that is contiguous to the main building of the licensed premises of the hotel. Allows the refilling of a bottle or container with a product from a</t>
+  </si>
+  <si>
+    <t>Edward Clere,Thomas Dermody,Philip GiaQuinta,James Arnold,Ronnie Alting</t>
   </si>
 </sst>
 </file>
@@ -736,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H26"/>
+      <selection sqref="A1:H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,6 +2497,2398 @@
         <v>119</v>
       </c>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>669175</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="1">
+        <v>42011</v>
+      </c>
+      <c r="E27" s="1">
+        <v>42129</v>
+      </c>
+      <c r="F27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>669207</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="1">
+        <v>42010</v>
+      </c>
+      <c r="E28" s="1">
+        <v>42124</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>669264</v>
+      </c>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="1">
+        <v>42010</v>
+      </c>
+      <c r="E29" s="1">
+        <v>42059</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>669296</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="1">
+        <v>42010</v>
+      </c>
+      <c r="E30" s="1">
+        <v>42096</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>669298</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="1">
+        <v>42010</v>
+      </c>
+      <c r="E31" s="1">
+        <v>42136</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>669321</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="1">
+        <v>42010</v>
+      </c>
+      <c r="E32" s="1">
+        <v>42130</v>
+      </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>669511</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="1">
+        <v>42010</v>
+      </c>
+      <c r="E33" s="1">
+        <v>42136</v>
+      </c>
+      <c r="F33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>669587</v>
+      </c>
+      <c r="B34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="1">
+        <v>42010</v>
+      </c>
+      <c r="E34" s="1">
+        <v>42089</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>669659</v>
+      </c>
+      <c r="B35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="1">
+        <v>42010</v>
+      </c>
+      <c r="E35" s="1">
+        <v>42059</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>669945</v>
+      </c>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="1">
+        <v>42012</v>
+      </c>
+      <c r="E36" s="1">
+        <v>42128</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>669984</v>
+      </c>
+      <c r="B37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="1">
+        <v>42012</v>
+      </c>
+      <c r="E37" s="1">
+        <v>42129</v>
+      </c>
+      <c r="F37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" t="s">
+        <v>163</v>
+      </c>
+      <c r="H37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>670064</v>
+      </c>
+      <c r="B38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="1">
+        <v>42012</v>
+      </c>
+      <c r="E38" s="1">
+        <v>42111</v>
+      </c>
+      <c r="F38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>670127</v>
+      </c>
+      <c r="B39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="1">
+        <v>42012</v>
+      </c>
+      <c r="E39" s="1">
+        <v>42124</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>171</v>
+      </c>
+      <c r="H39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>671994</v>
+      </c>
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="1">
+        <v>42016</v>
+      </c>
+      <c r="E40" s="1">
+        <v>42129</v>
+      </c>
+      <c r="F40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>672100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="1">
+        <v>42016</v>
+      </c>
+      <c r="E41" s="1">
+        <v>42115</v>
+      </c>
+      <c r="F41" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" t="s">
+        <v>179</v>
+      </c>
+      <c r="H41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>672102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="1">
+        <v>42016</v>
+      </c>
+      <c r="E42" s="1">
+        <v>42129</v>
+      </c>
+      <c r="F42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" t="s">
+        <v>183</v>
+      </c>
+      <c r="H42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>672125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" s="1">
+        <v>42016</v>
+      </c>
+      <c r="E43" s="1">
+        <v>42123</v>
+      </c>
+      <c r="F43" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" t="s">
+        <v>187</v>
+      </c>
+      <c r="H43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>672244</v>
+      </c>
+      <c r="B44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" s="1">
+        <v>42016</v>
+      </c>
+      <c r="E44" s="1">
+        <v>42130</v>
+      </c>
+      <c r="F44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" t="s">
+        <v>191</v>
+      </c>
+      <c r="H44" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>673258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" s="1">
+        <v>42016</v>
+      </c>
+      <c r="E45" s="1">
+        <v>42109</v>
+      </c>
+      <c r="F45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" t="s">
+        <v>195</v>
+      </c>
+      <c r="H45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>673336</v>
+      </c>
+      <c r="B46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="1">
+        <v>42016</v>
+      </c>
+      <c r="E46" s="1">
+        <v>42121</v>
+      </c>
+      <c r="F46" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" t="s">
+        <v>199</v>
+      </c>
+      <c r="H46" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>673380</v>
+      </c>
+      <c r="B47" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="1">
+        <v>42016</v>
+      </c>
+      <c r="E47" s="1">
+        <v>42129</v>
+      </c>
+      <c r="F47" t="s">
+        <v>203</v>
+      </c>
+      <c r="G47" t="s">
+        <v>204</v>
+      </c>
+      <c r="H47" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>674438</v>
+      </c>
+      <c r="B48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" s="1">
+        <v>42017</v>
+      </c>
+      <c r="E48" s="1">
+        <v>42129</v>
+      </c>
+      <c r="F48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" t="s">
+        <v>208</v>
+      </c>
+      <c r="H48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>675055</v>
+      </c>
+      <c r="B49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49" s="1">
+        <v>42017</v>
+      </c>
+      <c r="E49" s="1">
+        <v>42132</v>
+      </c>
+      <c r="F49" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" t="s">
+        <v>212</v>
+      </c>
+      <c r="H49" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>675232</v>
+      </c>
+      <c r="B50" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" t="s">
+        <v>215</v>
+      </c>
+      <c r="D50" s="1">
+        <v>42017</v>
+      </c>
+      <c r="E50" s="1">
+        <v>42129</v>
+      </c>
+      <c r="F50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G50" t="s">
+        <v>216</v>
+      </c>
+      <c r="H50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>675258</v>
+      </c>
+      <c r="B51" t="s">
+        <v>217</v>
+      </c>
+      <c r="C51" t="s">
+        <v>218</v>
+      </c>
+      <c r="D51" s="1">
+        <v>42017</v>
+      </c>
+      <c r="E51" s="1">
+        <v>42131</v>
+      </c>
+      <c r="F51" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" t="s">
+        <v>219</v>
+      </c>
+      <c r="H51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>675392</v>
+      </c>
+      <c r="B52" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" t="s">
+        <v>222</v>
+      </c>
+      <c r="D52" s="1">
+        <v>42017</v>
+      </c>
+      <c r="E52" s="1">
+        <v>42109</v>
+      </c>
+      <c r="F52" t="s">
+        <v>130</v>
+      </c>
+      <c r="G52" t="s">
+        <v>223</v>
+      </c>
+      <c r="H52" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>675602</v>
+      </c>
+      <c r="B53" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="1">
+        <v>42017</v>
+      </c>
+      <c r="E53" s="1">
+        <v>42124</v>
+      </c>
+      <c r="F53" t="s">
+        <v>130</v>
+      </c>
+      <c r="G53" t="s">
+        <v>227</v>
+      </c>
+      <c r="H53" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>675667</v>
+      </c>
+      <c r="B54" t="s">
+        <v>229</v>
+      </c>
+      <c r="C54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D54" s="1">
+        <v>42017</v>
+      </c>
+      <c r="E54" s="1">
+        <v>42129</v>
+      </c>
+      <c r="F54" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" t="s">
+        <v>231</v>
+      </c>
+      <c r="H54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>675760</v>
+      </c>
+      <c r="B55" t="s">
+        <v>233</v>
+      </c>
+      <c r="C55" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55" s="1">
+        <v>42017</v>
+      </c>
+      <c r="E55" s="1">
+        <v>42114</v>
+      </c>
+      <c r="F55" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" t="s">
+        <v>235</v>
+      </c>
+      <c r="H55" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>678288</v>
+      </c>
+      <c r="B56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E56" s="1">
+        <v>42129</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s">
+        <v>239</v>
+      </c>
+      <c r="H56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>678325</v>
+      </c>
+      <c r="B57" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E57" s="1">
+        <v>42124</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>243</v>
+      </c>
+      <c r="H57" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>678644</v>
+      </c>
+      <c r="B58" t="s">
+        <v>245</v>
+      </c>
+      <c r="C58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E58" s="1">
+        <v>42129</v>
+      </c>
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s">
+        <v>247</v>
+      </c>
+      <c r="H58" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>678677</v>
+      </c>
+      <c r="B59" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" t="s">
+        <v>250</v>
+      </c>
+      <c r="D59" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E59" s="1">
+        <v>42136</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s">
+        <v>251</v>
+      </c>
+      <c r="H59" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>679859</v>
+      </c>
+      <c r="B60" t="s">
+        <v>253</v>
+      </c>
+      <c r="C60" t="s">
+        <v>254</v>
+      </c>
+      <c r="D60" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E60" s="1">
+        <v>42065</v>
+      </c>
+      <c r="F60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60" t="s">
+        <v>255</v>
+      </c>
+      <c r="H60" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>679873</v>
+      </c>
+      <c r="B61" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61" t="s">
+        <v>258</v>
+      </c>
+      <c r="D61" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E61" s="1">
+        <v>42128</v>
+      </c>
+      <c r="F61" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" t="s">
+        <v>259</v>
+      </c>
+      <c r="H61" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>679944</v>
+      </c>
+      <c r="B62" t="s">
+        <v>261</v>
+      </c>
+      <c r="C62" t="s">
+        <v>262</v>
+      </c>
+      <c r="D62" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E62" s="1">
+        <v>42059</v>
+      </c>
+      <c r="F62" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" t="s">
+        <v>263</v>
+      </c>
+      <c r="H62" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>680006</v>
+      </c>
+      <c r="B63" t="s">
+        <v>265</v>
+      </c>
+      <c r="C63" t="s">
+        <v>266</v>
+      </c>
+      <c r="D63" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E63" s="1">
+        <v>42128</v>
+      </c>
+      <c r="F63" t="s">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s">
+        <v>267</v>
+      </c>
+      <c r="H63" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>680031</v>
+      </c>
+      <c r="B64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" t="s">
+        <v>269</v>
+      </c>
+      <c r="D64" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E64" s="1">
+        <v>42059</v>
+      </c>
+      <c r="F64" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" t="s">
+        <v>270</v>
+      </c>
+      <c r="H64" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>680055</v>
+      </c>
+      <c r="B65" t="s">
+        <v>272</v>
+      </c>
+      <c r="C65" t="s">
+        <v>273</v>
+      </c>
+      <c r="D65" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E65" s="1">
+        <v>42059</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>274</v>
+      </c>
+      <c r="H65" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>680135</v>
+      </c>
+      <c r="B66" t="s">
+        <v>276</v>
+      </c>
+      <c r="C66" t="s">
+        <v>277</v>
+      </c>
+      <c r="D66" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E66" s="1">
+        <v>42130</v>
+      </c>
+      <c r="F66" t="s">
+        <v>85</v>
+      </c>
+      <c r="G66" t="s">
+        <v>278</v>
+      </c>
+      <c r="H66" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>680159</v>
+      </c>
+      <c r="B67" t="s">
+        <v>280</v>
+      </c>
+      <c r="C67" t="s">
+        <v>281</v>
+      </c>
+      <c r="D67" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E67" s="1">
+        <v>42129</v>
+      </c>
+      <c r="F67" t="s">
+        <v>130</v>
+      </c>
+      <c r="G67" t="s">
+        <v>282</v>
+      </c>
+      <c r="H67" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>680173</v>
+      </c>
+      <c r="B68" t="s">
+        <v>284</v>
+      </c>
+      <c r="C68" t="s">
+        <v>285</v>
+      </c>
+      <c r="D68" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E68" s="1">
+        <v>42060</v>
+      </c>
+      <c r="F68" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" t="s">
+        <v>286</v>
+      </c>
+      <c r="H68" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>680208</v>
+      </c>
+      <c r="B69" t="s">
+        <v>288</v>
+      </c>
+      <c r="C69" t="s">
+        <v>289</v>
+      </c>
+      <c r="D69" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E69" s="1">
+        <v>42130</v>
+      </c>
+      <c r="F69" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69" t="s">
+        <v>290</v>
+      </c>
+      <c r="H69" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>680252</v>
+      </c>
+      <c r="B70" t="s">
+        <v>292</v>
+      </c>
+      <c r="C70" t="s">
+        <v>293</v>
+      </c>
+      <c r="D70" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E70" s="1">
+        <v>42108</v>
+      </c>
+      <c r="F70" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s">
+        <v>294</v>
+      </c>
+      <c r="H70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>680338</v>
+      </c>
+      <c r="B71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" t="s">
+        <v>296</v>
+      </c>
+      <c r="D71" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E71" s="1">
+        <v>42128</v>
+      </c>
+      <c r="F71" t="s">
+        <v>85</v>
+      </c>
+      <c r="G71" t="s">
+        <v>297</v>
+      </c>
+      <c r="H71" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>680350</v>
+      </c>
+      <c r="B72" t="s">
+        <v>299</v>
+      </c>
+      <c r="C72" t="s">
+        <v>300</v>
+      </c>
+      <c r="D72" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E72" s="1">
+        <v>42129</v>
+      </c>
+      <c r="F72" t="s">
+        <v>203</v>
+      </c>
+      <c r="G72" t="s">
+        <v>301</v>
+      </c>
+      <c r="H72" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>680396</v>
+      </c>
+      <c r="B73" t="s">
+        <v>303</v>
+      </c>
+      <c r="C73" t="s">
+        <v>304</v>
+      </c>
+      <c r="D73" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E73" s="1">
+        <v>42065</v>
+      </c>
+      <c r="F73" t="s">
+        <v>61</v>
+      </c>
+      <c r="G73" t="s">
+        <v>305</v>
+      </c>
+      <c r="H73" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>680525</v>
+      </c>
+      <c r="B74" t="s">
+        <v>307</v>
+      </c>
+      <c r="C74" t="s">
+        <v>308</v>
+      </c>
+      <c r="D74" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E74" s="1">
+        <v>42124</v>
+      </c>
+      <c r="F74" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" t="s">
+        <v>309</v>
+      </c>
+      <c r="H74" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>680555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>311</v>
+      </c>
+      <c r="C75" t="s">
+        <v>312</v>
+      </c>
+      <c r="D75" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E75" s="1">
+        <v>42089</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>313</v>
+      </c>
+      <c r="H75" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>680586</v>
+      </c>
+      <c r="B76" t="s">
+        <v>315</v>
+      </c>
+      <c r="C76" t="s">
+        <v>316</v>
+      </c>
+      <c r="D76" s="1">
+        <v>42018</v>
+      </c>
+      <c r="E76" s="1">
+        <v>42129</v>
+      </c>
+      <c r="F76" t="s">
+        <v>61</v>
+      </c>
+      <c r="G76" t="s">
+        <v>317</v>
+      </c>
+      <c r="H76" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>681118</v>
+      </c>
+      <c r="B77" t="s">
+        <v>319</v>
+      </c>
+      <c r="C77" t="s">
+        <v>320</v>
+      </c>
+      <c r="D77" s="1">
+        <v>42019</v>
+      </c>
+      <c r="E77" s="1">
+        <v>42107</v>
+      </c>
+      <c r="F77" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" t="s">
+        <v>321</v>
+      </c>
+      <c r="H77" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>681192</v>
+      </c>
+      <c r="B78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" t="s">
+        <v>323</v>
+      </c>
+      <c r="D78" s="1">
+        <v>42019</v>
+      </c>
+      <c r="E78" s="1">
+        <v>42131</v>
+      </c>
+      <c r="F78" t="s">
+        <v>130</v>
+      </c>
+      <c r="G78" t="s">
+        <v>324</v>
+      </c>
+      <c r="H78" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>681225</v>
+      </c>
+      <c r="B79" t="s">
+        <v>326</v>
+      </c>
+      <c r="C79" t="s">
+        <v>327</v>
+      </c>
+      <c r="D79" s="1">
+        <v>42019</v>
+      </c>
+      <c r="E79" s="1">
+        <v>42131</v>
+      </c>
+      <c r="F79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H79" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>685731</v>
+      </c>
+      <c r="B80" t="s">
+        <v>330</v>
+      </c>
+      <c r="C80" t="s">
+        <v>331</v>
+      </c>
+      <c r="D80" s="1">
+        <v>42024</v>
+      </c>
+      <c r="E80" s="1">
+        <v>42129</v>
+      </c>
+      <c r="F80" t="s">
+        <v>61</v>
+      </c>
+      <c r="G80" t="s">
+        <v>332</v>
+      </c>
+      <c r="H80" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>686048</v>
+      </c>
+      <c r="B81" t="s">
+        <v>334</v>
+      </c>
+      <c r="C81" t="s">
+        <v>335</v>
+      </c>
+      <c r="D81" s="1">
+        <v>42024</v>
+      </c>
+      <c r="E81" s="1">
+        <v>42059</v>
+      </c>
+      <c r="F81" t="s">
+        <v>85</v>
+      </c>
+      <c r="G81" t="s">
+        <v>336</v>
+      </c>
+      <c r="H81" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>686175</v>
+      </c>
+      <c r="B82" t="s">
+        <v>338</v>
+      </c>
+      <c r="C82" t="s">
+        <v>339</v>
+      </c>
+      <c r="D82" s="1">
+        <v>42024</v>
+      </c>
+      <c r="E82" s="1">
+        <v>42059</v>
+      </c>
+      <c r="F82" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s">
+        <v>340</v>
+      </c>
+      <c r="H82" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>686283</v>
+      </c>
+      <c r="B83" t="s">
+        <v>342</v>
+      </c>
+      <c r="C83" t="s">
+        <v>343</v>
+      </c>
+      <c r="D83" s="1">
+        <v>42024</v>
+      </c>
+      <c r="E83" s="1">
+        <v>42121</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>344</v>
+      </c>
+      <c r="H83" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>686393</v>
+      </c>
+      <c r="B84" t="s">
+        <v>346</v>
+      </c>
+      <c r="C84" t="s">
+        <v>347</v>
+      </c>
+      <c r="D84" s="1">
+        <v>42024</v>
+      </c>
+      <c r="E84" s="1">
+        <v>42059</v>
+      </c>
+      <c r="F84" t="s">
+        <v>130</v>
+      </c>
+      <c r="G84" t="s">
+        <v>348</v>
+      </c>
+      <c r="H84" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>686443</v>
+      </c>
+      <c r="B85" t="s">
+        <v>350</v>
+      </c>
+      <c r="C85" t="s">
+        <v>351</v>
+      </c>
+      <c r="D85" s="1">
+        <v>42026</v>
+      </c>
+      <c r="E85" s="1">
+        <v>42131</v>
+      </c>
+      <c r="F85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s">
+        <v>352</v>
+      </c>
+      <c r="H85" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>686861</v>
+      </c>
+      <c r="B86" t="s">
+        <v>354</v>
+      </c>
+      <c r="C86" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" s="1">
+        <v>42026</v>
+      </c>
+      <c r="E86" s="1">
+        <v>42059</v>
+      </c>
+      <c r="F86" t="s">
+        <v>71</v>
+      </c>
+      <c r="G86" t="s">
+        <v>355</v>
+      </c>
+      <c r="H86" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>687037</v>
+      </c>
+      <c r="B87" t="s">
+        <v>357</v>
+      </c>
+      <c r="C87" t="s">
+        <v>358</v>
+      </c>
+      <c r="D87" s="1">
+        <v>42026</v>
+      </c>
+      <c r="E87" s="1">
+        <v>42131</v>
+      </c>
+      <c r="F87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s">
+        <v>359</v>
+      </c>
+      <c r="H87" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>687129</v>
+      </c>
+      <c r="B88" t="s">
+        <v>361</v>
+      </c>
+      <c r="C88" t="s">
+        <v>362</v>
+      </c>
+      <c r="D88" s="1">
+        <v>42024</v>
+      </c>
+      <c r="E88" s="1">
+        <v>42065</v>
+      </c>
+      <c r="F88" t="s">
+        <v>130</v>
+      </c>
+      <c r="G88" t="s">
+        <v>363</v>
+      </c>
+      <c r="H88" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>802046</v>
+      </c>
+      <c r="B89" t="s">
+        <v>365</v>
+      </c>
+      <c r="C89" t="s">
+        <v>366</v>
+      </c>
+      <c r="D89" s="1">
+        <v>42374</v>
+      </c>
+      <c r="E89" s="1">
+        <v>42450</v>
+      </c>
+      <c r="F89" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" t="s">
+        <v>367</v>
+      </c>
+      <c r="H89" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>802084</v>
+      </c>
+      <c r="B90" t="s">
+        <v>369</v>
+      </c>
+      <c r="C90" t="s">
+        <v>370</v>
+      </c>
+      <c r="D90" s="1">
+        <v>42374</v>
+      </c>
+      <c r="E90" s="1">
+        <v>42433</v>
+      </c>
+      <c r="F90" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" t="s">
+        <v>371</v>
+      </c>
+      <c r="H90" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>802107</v>
+      </c>
+      <c r="B91" t="s">
+        <v>373</v>
+      </c>
+      <c r="C91" t="s">
+        <v>374</v>
+      </c>
+      <c r="D91" s="1">
+        <v>42374</v>
+      </c>
+      <c r="E91" s="1">
+        <v>42450</v>
+      </c>
+      <c r="F91" t="s">
+        <v>130</v>
+      </c>
+      <c r="G91" t="s">
+        <v>375</v>
+      </c>
+      <c r="H91" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>802113</v>
+      </c>
+      <c r="B92" t="s">
+        <v>377</v>
+      </c>
+      <c r="C92" t="s">
+        <v>378</v>
+      </c>
+      <c r="D92" s="1">
+        <v>42374</v>
+      </c>
+      <c r="E92" s="1">
+        <v>42451</v>
+      </c>
+      <c r="F92" t="s">
+        <v>38</v>
+      </c>
+      <c r="G92" t="s">
+        <v>379</v>
+      </c>
+      <c r="H92" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>802216</v>
+      </c>
+      <c r="B93" t="s">
+        <v>381</v>
+      </c>
+      <c r="C93" t="s">
+        <v>382</v>
+      </c>
+      <c r="D93" s="1">
+        <v>42374</v>
+      </c>
+      <c r="E93" s="1">
+        <v>42452</v>
+      </c>
+      <c r="F93" t="s">
+        <v>203</v>
+      </c>
+      <c r="G93" t="s">
+        <v>383</v>
+      </c>
+      <c r="H93" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>802633</v>
+      </c>
+      <c r="B94" t="s">
+        <v>385</v>
+      </c>
+      <c r="C94" t="s">
+        <v>386</v>
+      </c>
+      <c r="D94" s="1">
+        <v>42374</v>
+      </c>
+      <c r="E94" s="1">
+        <v>42433</v>
+      </c>
+      <c r="F94" t="s">
+        <v>130</v>
+      </c>
+      <c r="G94" t="s">
+        <v>387</v>
+      </c>
+      <c r="H94" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>802680</v>
+      </c>
+      <c r="B95" t="s">
+        <v>389</v>
+      </c>
+      <c r="C95" t="s">
+        <v>390</v>
+      </c>
+      <c r="D95" s="1">
+        <v>42374</v>
+      </c>
+      <c r="E95" s="1">
+        <v>42450</v>
+      </c>
+      <c r="F95" t="s">
+        <v>130</v>
+      </c>
+      <c r="G95" t="s">
+        <v>391</v>
+      </c>
+      <c r="H95" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>808000</v>
+      </c>
+      <c r="B96" t="s">
+        <v>393</v>
+      </c>
+      <c r="C96" t="s">
+        <v>394</v>
+      </c>
+      <c r="D96" s="1">
+        <v>42374</v>
+      </c>
+      <c r="E96" s="1">
+        <v>42451</v>
+      </c>
+      <c r="F96" t="s">
+        <v>117</v>
+      </c>
+      <c r="G96" t="s">
+        <v>395</v>
+      </c>
+      <c r="H96" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>808002</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>397</v>
+      </c>
+      <c r="D97" s="1">
+        <v>42374</v>
+      </c>
+      <c r="E97" s="1">
+        <v>42453</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>398</v>
+      </c>
+      <c r="H97" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>808048</v>
+      </c>
+      <c r="B98" t="s">
+        <v>400</v>
+      </c>
+      <c r="C98" t="s">
+        <v>401</v>
+      </c>
+      <c r="D98" s="1">
+        <v>42374</v>
+      </c>
+      <c r="E98" s="1">
+        <v>42403</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>402</v>
+      </c>
+      <c r="H98" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>808058</v>
+      </c>
+      <c r="B99" t="s">
+        <v>404</v>
+      </c>
+      <c r="C99" t="s">
+        <v>405</v>
+      </c>
+      <c r="D99" s="1">
+        <v>42374</v>
+      </c>
+      <c r="E99" s="1">
+        <v>42452</v>
+      </c>
+      <c r="F99" t="s">
+        <v>85</v>
+      </c>
+      <c r="G99" t="s">
+        <v>406</v>
+      </c>
+      <c r="H99" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>808067</v>
+      </c>
+      <c r="B100" t="s">
+        <v>408</v>
+      </c>
+      <c r="C100" t="s">
+        <v>409</v>
+      </c>
+      <c r="D100" s="1">
+        <v>42374</v>
+      </c>
+      <c r="E100" s="1">
+        <v>42453</v>
+      </c>
+      <c r="F100" t="s">
+        <v>38</v>
+      </c>
+      <c r="G100" t="s">
+        <v>410</v>
+      </c>
+      <c r="H100" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>808081</v>
+      </c>
+      <c r="B101" t="s">
+        <v>412</v>
+      </c>
+      <c r="C101" t="s">
+        <v>413</v>
+      </c>
+      <c r="D101" s="1">
+        <v>42374</v>
+      </c>
+      <c r="E101" s="1">
+        <v>42453</v>
+      </c>
+      <c r="F101" t="s">
+        <v>80</v>
+      </c>
+      <c r="G101" t="s">
+        <v>414</v>
+      </c>
+      <c r="H101" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>808747</v>
+      </c>
+      <c r="B102" t="s">
+        <v>416</v>
+      </c>
+      <c r="C102" t="s">
+        <v>417</v>
+      </c>
+      <c r="D102" s="1">
+        <v>42376</v>
+      </c>
+      <c r="E102" s="1">
+        <v>42450</v>
+      </c>
+      <c r="F102" t="s">
+        <v>71</v>
+      </c>
+      <c r="G102" t="s">
+        <v>418</v>
+      </c>
+      <c r="H102" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>808764</v>
+      </c>
+      <c r="B103" t="s">
+        <v>420</v>
+      </c>
+      <c r="C103" t="s">
+        <v>421</v>
+      </c>
+      <c r="D103" s="1">
+        <v>42376</v>
+      </c>
+      <c r="E103" s="1">
+        <v>42452</v>
+      </c>
+      <c r="F103" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" t="s">
+        <v>422</v>
+      </c>
+      <c r="H103" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>808845</v>
+      </c>
+      <c r="B104" t="s">
+        <v>424</v>
+      </c>
+      <c r="C104" t="s">
+        <v>425</v>
+      </c>
+      <c r="D104" s="1">
+        <v>42376</v>
+      </c>
+      <c r="E104" s="1">
+        <v>42408</v>
+      </c>
+      <c r="F104" t="s">
+        <v>85</v>
+      </c>
+      <c r="G104" t="s">
+        <v>426</v>
+      </c>
+      <c r="H104" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>808931</v>
+      </c>
+      <c r="B105" t="s">
+        <v>428</v>
+      </c>
+      <c r="C105" t="s">
+        <v>429</v>
+      </c>
+      <c r="D105" s="1">
+        <v>42376</v>
+      </c>
+      <c r="E105" s="1">
+        <v>42452</v>
+      </c>
+      <c r="F105" t="s">
+        <v>71</v>
+      </c>
+      <c r="G105" t="s">
+        <v>430</v>
+      </c>
+      <c r="H105" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>809080</v>
+      </c>
+      <c r="B106" t="s">
+        <v>432</v>
+      </c>
+      <c r="C106" t="s">
+        <v>433</v>
+      </c>
+      <c r="D106" s="1">
+        <v>42376</v>
+      </c>
+      <c r="E106" s="1">
+        <v>42433</v>
+      </c>
+      <c r="F106" t="s">
+        <v>61</v>
+      </c>
+      <c r="G106" t="s">
+        <v>434</v>
+      </c>
+      <c r="H106" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>809133</v>
+      </c>
+      <c r="B107" t="s">
+        <v>50</v>
+      </c>
+      <c r="C107" t="s">
+        <v>436</v>
+      </c>
+      <c r="D107" s="1">
+        <v>42376</v>
+      </c>
+      <c r="E107" s="1">
+        <v>42450</v>
+      </c>
+      <c r="F107" t="s">
+        <v>61</v>
+      </c>
+      <c r="G107" t="s">
+        <v>437</v>
+      </c>
+      <c r="H107" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>809161</v>
+      </c>
+      <c r="B108" t="s">
+        <v>439</v>
+      </c>
+      <c r="C108" t="s">
+        <v>440</v>
+      </c>
+      <c r="D108" s="1">
+        <v>42376</v>
+      </c>
+      <c r="E108" s="1">
+        <v>42436</v>
+      </c>
+      <c r="F108" t="s">
+        <v>80</v>
+      </c>
+      <c r="G108" t="s">
+        <v>441</v>
+      </c>
+      <c r="H108" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>809181</v>
+      </c>
+      <c r="B109" t="s">
+        <v>165</v>
+      </c>
+      <c r="C109" t="s">
+        <v>443</v>
+      </c>
+      <c r="D109" s="1">
+        <v>42376</v>
+      </c>
+      <c r="E109" s="1">
+        <v>42453</v>
+      </c>
+      <c r="F109" t="s">
+        <v>56</v>
+      </c>
+      <c r="G109" t="s">
+        <v>444</v>
+      </c>
+      <c r="H109" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>809326</v>
+      </c>
+      <c r="B110" t="s">
+        <v>446</v>
+      </c>
+      <c r="C110" t="s">
+        <v>447</v>
+      </c>
+      <c r="D110" s="1">
+        <v>42376</v>
+      </c>
+      <c r="E110" s="1">
+        <v>42436</v>
+      </c>
+      <c r="F110" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" t="s">
+        <v>448</v>
+      </c>
+      <c r="H110" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>809539</v>
+      </c>
+      <c r="B111" t="s">
+        <v>450</v>
+      </c>
+      <c r="C111" t="s">
+        <v>451</v>
+      </c>
+      <c r="D111" s="1">
+        <v>42380</v>
+      </c>
+      <c r="E111" s="1">
+        <v>42450</v>
+      </c>
+      <c r="F111" t="s">
+        <v>85</v>
+      </c>
+      <c r="G111" t="s">
+        <v>452</v>
+      </c>
+      <c r="H111" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>810976</v>
+      </c>
+      <c r="B112" t="s">
+        <v>454</v>
+      </c>
+      <c r="C112" t="s">
+        <v>455</v>
+      </c>
+      <c r="D112" s="1">
+        <v>42380</v>
+      </c>
+      <c r="E112" s="1">
+        <v>42408</v>
+      </c>
+      <c r="F112" t="s">
+        <v>38</v>
+      </c>
+      <c r="G112" t="s">
+        <v>456</v>
+      </c>
+      <c r="H112" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>811979</v>
+      </c>
+      <c r="B113" t="s">
+        <v>458</v>
+      </c>
+      <c r="C113" t="s">
+        <v>459</v>
+      </c>
+      <c r="D113" s="1">
+        <v>42381</v>
+      </c>
+      <c r="E113" s="1">
+        <v>42453</v>
+      </c>
+      <c r="F113" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>460</v>
+      </c>
+      <c r="H113" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>812185</v>
+      </c>
+      <c r="B114" t="s">
+        <v>462</v>
+      </c>
+      <c r="C114" t="s">
+        <v>463</v>
+      </c>
+      <c r="D114" s="1">
+        <v>42381</v>
+      </c>
+      <c r="E114" s="1">
+        <v>42450</v>
+      </c>
+      <c r="F114" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" t="s">
+        <v>464</v>
+      </c>
+      <c r="H114" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>813948</v>
+      </c>
+      <c r="B115" t="s">
+        <v>466</v>
+      </c>
+      <c r="C115" t="s">
+        <v>467</v>
+      </c>
+      <c r="D115" s="1">
+        <v>42382</v>
+      </c>
+      <c r="E115" s="1">
+        <v>42422</v>
+      </c>
+      <c r="F115" t="s">
+        <v>130</v>
+      </c>
+      <c r="G115" t="s">
+        <v>468</v>
+      </c>
+      <c r="H115" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>814233</v>
+      </c>
+      <c r="B116" t="s">
+        <v>470</v>
+      </c>
+      <c r="C116" t="s">
+        <v>471</v>
+      </c>
+      <c r="D116" s="1">
+        <v>42382</v>
+      </c>
+      <c r="E116" s="1">
+        <v>42451</v>
+      </c>
+      <c r="F116" t="s">
+        <v>25</v>
+      </c>
+      <c r="G116" t="s">
+        <v>472</v>
+      </c>
+      <c r="H116" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>814425</v>
+      </c>
+      <c r="B117" t="s">
+        <v>64</v>
+      </c>
+      <c r="C117" t="s">
+        <v>447</v>
+      </c>
+      <c r="D117" s="1">
+        <v>42382</v>
+      </c>
+      <c r="E117" s="1">
+        <v>42451</v>
+      </c>
+      <c r="F117" t="s">
+        <v>25</v>
+      </c>
+      <c r="G117" t="s">
+        <v>474</v>
+      </c>
+      <c r="H117" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>814454</v>
+      </c>
+      <c r="B118" t="s">
+        <v>476</v>
+      </c>
+      <c r="C118" t="s">
+        <v>477</v>
+      </c>
+      <c r="D118" s="1">
+        <v>42382</v>
+      </c>
+      <c r="E118" s="1">
+        <v>42453</v>
+      </c>
+      <c r="F118" t="s">
+        <v>61</v>
+      </c>
+      <c r="G118" t="s">
+        <v>478</v>
+      </c>
+      <c r="H118" t="s">
+        <v>457</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
